--- a/collector/measurements.xlsx
+++ b/collector/measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\BI\CD\Proj13\130131_Recreational_waterway_monitoring\Water Management\2019-20\02_Website upload\website upload 20-01-06 and 19-12-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\BI\CD\Proj13\130131_Recreational_waterway_monitoring\Water Management\2019-20\02_Website upload\website upload 20-04-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BBDE2FA-7E20-4891-BDE0-D438AA79FE85}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4750969-B0E5-4C5E-836A-0B0B8FD6AD6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-20 results" sheetId="13" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <sheet name="2011-12 results" sheetId="4" r:id="rId9"/>
     <sheet name="Disclaimer" sheetId="3" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="107">
   <si>
     <t>Shorncliffe</t>
   </si>
@@ -434,9 +434,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="[$-C09]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="[$-C09]d\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -759,7 +759,7 @@
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
@@ -776,7 +776,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -800,7 +800,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -825,7 +825,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyBorder="1" applyProtection="1"/>
@@ -846,7 +846,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyBorder="1" applyProtection="1"/>
@@ -915,13 +915,13 @@
     <xf numFmtId="3" fontId="17" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="17" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="17" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -937,16 +937,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1"/>
@@ -1058,7 +1058,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyBorder="1" applyProtection="1"/>
@@ -1455,6 +1455,27 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1549,10 +1570,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6600"/>
+      <color rgb="FFFFCC99"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FFCCFFCC"/>
-      <color rgb="FFFFCC99"/>
-      <color rgb="FFFF6600"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2278,58 +2299,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P43"/>
+  <dimension ref="B2:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P18" sqref="P18"/>
+      <pane xSplit="6" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="20.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="61.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="7"/>
+    <col min="3" max="3" width="20.1328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="61.265625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1328125" customWidth="1"/>
+    <col min="9" max="9" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:23" ht="14.25" x14ac:dyDescent="0.35">
       <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="283" t="s">
+    <row r="5" spans="2:23" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:23" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="B6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="283" t="s">
+      <c r="C6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="283" t="s">
+      <c r="D6" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="283" t="s">
+      <c r="E6" s="290" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="283" t="s">
+      <c r="F6" s="290" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="269" t="s">
@@ -2362,15 +2387,36 @@
       <c r="P6" s="279" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="284" t="s">
+      <c r="Q6" s="280" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="281" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="282" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="283" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="284" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" s="285" t="s">
+        <v>66</v>
+      </c>
+      <c r="W6" s="286" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
       <c r="G7" s="108">
         <v>43656</v>
       </c>
@@ -2401,8 +2447,29 @@
       <c r="P7" s="108">
         <v>43836</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="108">
+        <v>43850</v>
+      </c>
+      <c r="R7" s="108">
+        <v>43865</v>
+      </c>
+      <c r="S7" s="108">
+        <v>43878</v>
+      </c>
+      <c r="T7" s="108">
+        <v>43895</v>
+      </c>
+      <c r="U7" s="108">
+        <v>43907</v>
+      </c>
+      <c r="V7" s="108">
+        <v>43923</v>
+      </c>
+      <c r="W7" s="108">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B8" s="11">
         <v>1</v>
       </c>
@@ -2448,8 +2515,29 @@
       <c r="P8" s="168">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="168">
+        <v>6</v>
+      </c>
+      <c r="S8" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="241">
+        <v>94</v>
+      </c>
+      <c r="U8" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="V8" s="168">
+        <v>14</v>
+      </c>
+      <c r="W8" s="204" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B9" s="11">
         <v>2</v>
       </c>
@@ -2495,8 +2583,29 @@
       <c r="P9" s="168">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="241">
+        <v>180</v>
+      </c>
+      <c r="S9" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="248">
+        <v>4100</v>
+      </c>
+      <c r="U9" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="V9" s="168">
+        <v>32</v>
+      </c>
+      <c r="W9" s="204" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B10" s="11">
         <v>3</v>
       </c>
@@ -2542,8 +2651,29 @@
       <c r="P10" s="241">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="248">
+        <v>1200</v>
+      </c>
+      <c r="R10" s="248">
+        <v>2800</v>
+      </c>
+      <c r="S10" s="241">
+        <v>110</v>
+      </c>
+      <c r="T10" s="248">
+        <v>7900</v>
+      </c>
+      <c r="U10" s="241">
+        <v>73</v>
+      </c>
+      <c r="V10" s="241">
+        <v>130</v>
+      </c>
+      <c r="W10" s="241">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -2589,8 +2719,29 @@
       <c r="P11" s="168" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" s="248">
+        <v>3600</v>
+      </c>
+      <c r="S11" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="168">
+        <v>9</v>
+      </c>
+      <c r="U11" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" s="168">
+        <v>8</v>
+      </c>
+      <c r="W11" s="204" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -2636,8 +2787,29 @@
       <c r="P12" s="168" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" s="168">
+        <v>27</v>
+      </c>
+      <c r="S12" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" s="168">
+        <v>9</v>
+      </c>
+      <c r="U12" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="V12" s="168">
+        <v>4</v>
+      </c>
+      <c r="W12" s="204" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -2683,8 +2855,29 @@
       <c r="P13" s="168">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" s="248">
+        <v>2000</v>
+      </c>
+      <c r="S13" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" s="250">
+        <v>460</v>
+      </c>
+      <c r="U13" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="V13" s="241">
+        <v>190</v>
+      </c>
+      <c r="W13" s="204" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -2730,8 +2923,29 @@
       <c r="P14" s="168">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14" s="248">
+        <v>1100</v>
+      </c>
+      <c r="S14" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="T14" s="168">
+        <v>37</v>
+      </c>
+      <c r="U14" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="V14" s="168">
+        <v>13</v>
+      </c>
+      <c r="W14" s="204" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B15" s="11">
         <v>8</v>
       </c>
@@ -2777,8 +2991,29 @@
       <c r="P15" s="168">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="R15" s="250">
+        <v>220</v>
+      </c>
+      <c r="S15" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="T15" s="241">
+        <v>44</v>
+      </c>
+      <c r="U15" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="V15" s="168">
+        <v>35</v>
+      </c>
+      <c r="W15" s="204" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B16" s="11">
         <v>9</v>
       </c>
@@ -2824,8 +3059,29 @@
       <c r="P16" s="168">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="R16" s="241">
+        <v>120</v>
+      </c>
+      <c r="S16" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="T16" s="168">
+        <v>35</v>
+      </c>
+      <c r="U16" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="V16" s="168">
+        <v>36</v>
+      </c>
+      <c r="W16" s="204" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B17" s="28">
         <v>10</v>
       </c>
@@ -2871,8 +3127,29 @@
       <c r="P17" s="168">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="R17" s="241">
+        <v>100</v>
+      </c>
+      <c r="S17" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="T17" s="250">
+        <v>230</v>
+      </c>
+      <c r="U17" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="V17" s="250">
+        <v>320</v>
+      </c>
+      <c r="W17" s="204" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="39">
         <v>11</v>
       </c>
@@ -2918,165 +3195,186 @@
       <c r="P18" s="245">
         <v>310</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="240">
+        <v>1500</v>
+      </c>
+      <c r="R18" s="240">
+        <v>4200</v>
+      </c>
+      <c r="S18" s="245">
+        <v>330</v>
+      </c>
+      <c r="T18" s="240">
+        <v>1800</v>
+      </c>
+      <c r="U18" s="240">
+        <v>820</v>
+      </c>
+      <c r="V18" s="240">
+        <v>1400</v>
+      </c>
+      <c r="W18" s="240">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B19" s="80"/>
       <c r="C19" s="81"/>
       <c r="D19" s="82"/>
       <c r="E19" s="82"/>
       <c r="F19" s="83"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B20" s="80"/>
       <c r="C20" s="81"/>
       <c r="D20" s="82"/>
       <c r="E20" s="82"/>
       <c r="F20" s="83"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:23" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C21" s="49" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="49"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:23" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C22" s="52" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C23" s="53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C24" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C25" s="55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C26" s="56" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C27" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="268"/>
       <c r="D33" s="268"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
     </row>
-    <row r="34" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C34" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="285" t="s">
+      <c r="D34" s="292" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="285"/>
-      <c r="F34" s="285"/>
-    </row>
-    <row r="35" spans="3:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="292"/>
+      <c r="F34" s="292"/>
+    </row>
+    <row r="35" spans="3:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C35" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="280" t="s">
+      <c r="D35" s="287" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="280"/>
-      <c r="F35" s="280"/>
-    </row>
-    <row r="36" spans="3:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="287"/>
+      <c r="F35" s="287"/>
+    </row>
+    <row r="36" spans="3:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="281" t="s">
+      <c r="D36" s="288" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="281"/>
-      <c r="F36" s="281"/>
-    </row>
-    <row r="37" spans="3:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="288"/>
+      <c r="F36" s="288"/>
+    </row>
+    <row r="37" spans="3:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="281" t="s">
+      <c r="D37" s="288" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="281"/>
-      <c r="F37" s="281"/>
-    </row>
-    <row r="38" spans="3:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="288"/>
+      <c r="F37" s="288"/>
+    </row>
+    <row r="38" spans="3:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="282" t="s">
+      <c r="D38" s="289" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="282"/>
-      <c r="F38" s="282"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E38" s="289"/>
+      <c r="F38" s="289"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C39" s="63"/>
       <c r="D39" s="64"/>
       <c r="E39" s="64"/>
       <c r="F39" s="64"/>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D43" s="12"/>
     </row>
   </sheetData>
@@ -3110,25 +3408,25 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="86.140625" customWidth="1"/>
+    <col min="2" max="2" width="86.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="2:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" ht="63.75" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" s="6"/>
     </row>
   </sheetData>
@@ -3149,56 +3447,56 @@
       <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="20.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="61.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="7"/>
+    <col min="3" max="3" width="20.1328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="61.265625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1328125" customWidth="1"/>
+    <col min="9" max="9" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:26" ht="14.25" x14ac:dyDescent="0.35">
       <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B6" s="283" t="s">
+    <row r="5" spans="2:26" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:26" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="B6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="283" t="s">
+      <c r="C6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="283" t="s">
+      <c r="D6" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="283" t="s">
+      <c r="E6" s="290" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="283" t="s">
+      <c r="F6" s="290" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="239" t="s">
@@ -3262,14 +3560,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="284" t="s">
+    <row r="7" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
       <c r="G7" s="108">
         <v>43294</v>
       </c>
@@ -3331,7 +3629,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B8" s="11">
         <v>1</v>
       </c>
@@ -3408,7 +3706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B9" s="11">
         <v>2</v>
       </c>
@@ -3485,7 +3783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B10" s="11">
         <v>3</v>
       </c>
@@ -3562,7 +3860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -3639,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -3716,7 +4014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -3793,7 +4091,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -3870,7 +4168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B15" s="11">
         <v>8</v>
       </c>
@@ -3947,7 +4245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B16" s="11">
         <v>9</v>
       </c>
@@ -4024,7 +4322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B17" s="28">
         <v>10</v>
       </c>
@@ -4101,7 +4399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="39">
         <v>11</v>
       </c>
@@ -4178,7 +4476,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B19" s="80"/>
       <c r="C19" s="81"/>
       <c r="D19" s="82"/>
@@ -4186,7 +4484,7 @@
       <c r="F19" s="83"/>
       <c r="H19" s="167"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B20" s="80"/>
       <c r="C20" s="81"/>
       <c r="D20" s="82"/>
@@ -4196,7 +4494,7 @@
       <c r="J20" s="158"/>
       <c r="K20" s="159"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:26" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C21" s="49" t="s">
         <v>43</v>
       </c>
@@ -4206,7 +4504,7 @@
       <c r="J21" s="158"/>
       <c r="K21" s="159"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:26" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C22" s="52" t="s">
         <v>106</v>
       </c>
@@ -4215,7 +4513,7 @@
       <c r="J22" s="158"/>
       <c r="K22" s="159"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C23" s="53" t="s">
         <v>45</v>
       </c>
@@ -4224,7 +4522,7 @@
       <c r="J23" s="158"/>
       <c r="K23" s="159"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C24" s="54" t="s">
         <v>46</v>
       </c>
@@ -4233,7 +4531,7 @@
       <c r="J24" s="158"/>
       <c r="K24" s="159"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C25" s="55" t="s">
         <v>47</v>
       </c>
@@ -4242,7 +4540,7 @@
       <c r="J25" s="158"/>
       <c r="K25" s="159"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C26" s="56" t="s">
         <v>48</v>
       </c>
@@ -4252,7 +4550,7 @@
       <c r="J26" s="158"/>
       <c r="K26" s="159"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C27" s="11" t="s">
         <v>49</v>
       </c>
@@ -4262,7 +4560,7 @@
       <c r="J27" s="158"/>
       <c r="K27" s="159"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="H28" s="254"/>
@@ -4270,7 +4568,7 @@
       <c r="J28" s="158"/>
       <c r="K28" s="159"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -4280,7 +4578,7 @@
       <c r="J29" s="158"/>
       <c r="K29" s="159"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -4290,7 +4588,7 @@
       <c r="J30" s="158"/>
       <c r="K30" s="159"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -4298,90 +4596,90 @@
       <c r="H31" s="254"/>
       <c r="I31" s="253"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="238"/>
       <c r="D33" s="238"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
     </row>
-    <row r="34" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C34" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="285" t="s">
+      <c r="D34" s="292" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="285"/>
-      <c r="F34" s="285"/>
-    </row>
-    <row r="35" spans="3:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="292"/>
+      <c r="F34" s="292"/>
+    </row>
+    <row r="35" spans="3:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C35" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="280" t="s">
+      <c r="D35" s="287" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="280"/>
-      <c r="F35" s="280"/>
-    </row>
-    <row r="36" spans="3:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="287"/>
+      <c r="F35" s="287"/>
+    </row>
+    <row r="36" spans="3:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="281" t="s">
+      <c r="D36" s="288" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="281"/>
-      <c r="F36" s="281"/>
-    </row>
-    <row r="37" spans="3:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="288"/>
+      <c r="F36" s="288"/>
+    </row>
+    <row r="37" spans="3:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="281" t="s">
+      <c r="D37" s="288" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="281"/>
-      <c r="F37" s="281"/>
-    </row>
-    <row r="38" spans="3:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="288"/>
+      <c r="F37" s="288"/>
+    </row>
+    <row r="38" spans="3:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="282" t="s">
+      <c r="D38" s="289" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="282"/>
-      <c r="F38" s="282"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E38" s="289"/>
+      <c r="F38" s="289"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C39" s="63"/>
       <c r="D39" s="64"/>
       <c r="E39" s="64"/>
       <c r="F39" s="64"/>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D43" s="12"/>
     </row>
   </sheetData>
@@ -4415,51 +4713,51 @@
       <selection pane="topRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="20.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="61.28515625" style="7" customWidth="1"/>
-    <col min="7" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="7"/>
+    <col min="3" max="3" width="20.1328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="61.265625" style="7" customWidth="1"/>
+    <col min="7" max="8" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.73046875" customWidth="1"/>
+    <col min="10" max="11" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="26" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="26" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:26" ht="14.25" x14ac:dyDescent="0.35">
       <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B6" s="283" t="s">
+    <row r="5" spans="2:26" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:26" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="B6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="283" t="s">
+      <c r="C6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="283" t="s">
+      <c r="D6" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="283" t="s">
+      <c r="E6" s="290" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="283" t="s">
+      <c r="F6" s="290" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="202" t="s">
@@ -4523,14 +4821,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="284" t="s">
+    <row r="7" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
       <c r="G7" s="108">
         <v>42935</v>
       </c>
@@ -4592,7 +4890,7 @@
         <v>43263</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B8" s="11">
         <v>1</v>
       </c>
@@ -4669,7 +4967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B9" s="11">
         <v>2</v>
       </c>
@@ -4746,7 +5044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B10" s="11">
         <v>3</v>
       </c>
@@ -4823,7 +5121,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -4900,7 +5198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -4977,7 +5275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -5054,7 +5352,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -5131,7 +5429,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B15" s="11">
         <v>8</v>
       </c>
@@ -5208,7 +5506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B16" s="11">
         <v>9</v>
       </c>
@@ -5285,7 +5583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B17" s="28">
         <v>10</v>
       </c>
@@ -5362,7 +5660,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="39">
         <v>11</v>
       </c>
@@ -5439,7 +5737,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B19" s="80"/>
       <c r="C19" s="81"/>
       <c r="D19" s="82"/>
@@ -5450,7 +5748,7 @@
       <c r="M19" s="174"/>
       <c r="Q19" s="186"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B20" s="80"/>
       <c r="C20" s="81"/>
       <c r="D20" s="82"/>
@@ -5460,7 +5758,7 @@
       <c r="L20" s="174"/>
       <c r="M20" s="174"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:26" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C21" s="49" t="s">
         <v>43</v>
       </c>
@@ -5469,7 +5767,7 @@
       <c r="M21" s="213"/>
       <c r="N21" s="199"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:26" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C22" s="52" t="s">
         <v>106</v>
       </c>
@@ -5477,7 +5775,7 @@
       <c r="M22" s="214"/>
       <c r="N22" s="199"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C23" s="53" t="s">
         <v>45</v>
       </c>
@@ -5485,7 +5783,7 @@
       <c r="M23" s="214"/>
       <c r="N23" s="199"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C24" s="54" t="s">
         <v>46</v>
       </c>
@@ -5493,7 +5791,7 @@
       <c r="M24" s="214"/>
       <c r="N24" s="199"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C25" s="55" t="s">
         <v>47</v>
       </c>
@@ -5501,7 +5799,7 @@
       <c r="M25" s="213"/>
       <c r="N25" s="199"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C26" s="56" t="s">
         <v>48</v>
       </c>
@@ -5510,7 +5808,7 @@
       <c r="M26" s="214"/>
       <c r="N26" s="199"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C27" s="11" t="s">
         <v>49</v>
       </c>
@@ -5519,14 +5817,14 @@
       <c r="M27" s="159"/>
       <c r="N27" s="199"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="L28" s="212"/>
       <c r="M28" s="159"/>
       <c r="N28" s="199"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -5535,7 +5833,7 @@
       <c r="M29" s="159"/>
       <c r="N29" s="199"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -5544,7 +5842,7 @@
       <c r="M30" s="159"/>
       <c r="N30" s="199"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -5553,7 +5851,7 @@
       <c r="M31" s="159"/>
       <c r="N31" s="199"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -5561,7 +5859,7 @@
       <c r="L32" s="212"/>
       <c r="M32" s="159"/>
     </row>
-    <row r="33" spans="3:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="201"/>
       <c r="D33" s="201"/>
       <c r="E33" s="59"/>
@@ -5572,95 +5870,95 @@
       <c r="S33" s="195"/>
       <c r="U33" s="159"/>
     </row>
-    <row r="34" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:21" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C34" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="285" t="s">
+      <c r="D34" s="292" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="285"/>
-      <c r="F34" s="285"/>
+      <c r="E34" s="292"/>
+      <c r="F34" s="292"/>
       <c r="L34" s="159"/>
       <c r="M34" s="159"/>
       <c r="N34" s="159"/>
       <c r="U34" s="159"/>
     </row>
-    <row r="35" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C35" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="280" t="s">
+      <c r="D35" s="287" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="280"/>
-      <c r="F35" s="280"/>
+      <c r="E35" s="287"/>
+      <c r="F35" s="287"/>
       <c r="L35" s="159"/>
       <c r="M35" s="159"/>
       <c r="N35" s="159"/>
       <c r="U35" s="159"/>
     </row>
-    <row r="36" spans="3:21" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:21" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="281" t="s">
+      <c r="D36" s="288" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="281"/>
-      <c r="F36" s="281"/>
+      <c r="E36" s="288"/>
+      <c r="F36" s="288"/>
       <c r="L36" s="159"/>
       <c r="M36" s="159"/>
       <c r="N36" s="159"/>
       <c r="U36" s="159"/>
     </row>
-    <row r="37" spans="3:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="281" t="s">
+      <c r="D37" s="288" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="281"/>
-      <c r="F37" s="281"/>
+      <c r="E37" s="288"/>
+      <c r="F37" s="288"/>
       <c r="L37" s="159"/>
       <c r="M37" s="159"/>
       <c r="N37" s="159"/>
       <c r="U37" s="159"/>
     </row>
-    <row r="38" spans="3:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="282" t="s">
+      <c r="D38" s="289" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="282"/>
-      <c r="F38" s="282"/>
+      <c r="E38" s="289"/>
+      <c r="F38" s="289"/>
       <c r="L38" s="159"/>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C39" s="63"/>
       <c r="D39" s="64"/>
       <c r="E39" s="64"/>
       <c r="F39" s="64"/>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:21" x14ac:dyDescent="0.35">
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:21" x14ac:dyDescent="0.35">
       <c r="D43" s="12"/>
     </row>
   </sheetData>
@@ -5694,53 +5992,53 @@
       <selection pane="topRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="20.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="61.28515625" style="7" customWidth="1"/>
-    <col min="7" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="7"/>
+    <col min="3" max="3" width="20.1328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="61.265625" style="7" customWidth="1"/>
+    <col min="7" max="11" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25" ht="14.25" x14ac:dyDescent="0.35">
       <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B6" s="283" t="s">
+    <row r="5" spans="2:25" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:25" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="283" t="s">
+      <c r="C6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="283" t="s">
+      <c r="D6" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="283" t="s">
+      <c r="E6" s="290" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="283" t="s">
+      <c r="F6" s="290" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="164" t="s">
@@ -5801,14 +6099,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="284" t="s">
+    <row r="7" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
       <c r="G7" s="108">
         <v>42565</v>
       </c>
@@ -5867,7 +6165,7 @@
         <v>42906</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B8" s="11">
         <v>1</v>
       </c>
@@ -5941,7 +6239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B9" s="11">
         <v>2</v>
       </c>
@@ -6015,7 +6313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B10" s="11">
         <v>3</v>
       </c>
@@ -6089,7 +6387,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -6163,7 +6461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -6237,7 +6535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -6311,7 +6609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -6385,7 +6683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B15" s="11">
         <v>8</v>
       </c>
@@ -6459,7 +6757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B16" s="11">
         <v>9</v>
       </c>
@@ -6533,7 +6831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B17" s="28">
         <v>10</v>
       </c>
@@ -6607,7 +6905,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="39">
         <v>11</v>
       </c>
@@ -6681,7 +6979,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B19" s="80"/>
       <c r="C19" s="81"/>
       <c r="D19" s="82"/>
@@ -6692,7 +6990,7 @@
       <c r="M19" s="174"/>
       <c r="Q19" s="186"/>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B20" s="80"/>
       <c r="C20" s="81"/>
       <c r="D20" s="82"/>
@@ -6702,7 +7000,7 @@
       <c r="L20" s="174"/>
       <c r="M20" s="174"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C21" s="49" t="s">
         <v>43</v>
       </c>
@@ -6711,7 +7009,7 @@
       <c r="M21" s="174"/>
       <c r="V21" s="199"/>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.35">
       <c r="C22" s="52" t="s">
         <v>44</v>
       </c>
@@ -6719,7 +7017,7 @@
       <c r="M22" s="174"/>
       <c r="V22" s="199"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.35">
       <c r="C23" s="53" t="s">
         <v>45</v>
       </c>
@@ -6728,7 +7026,7 @@
       <c r="S23" s="194"/>
       <c r="V23" s="199"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.35">
       <c r="C24" s="54" t="s">
         <v>46</v>
       </c>
@@ -6737,7 +7035,7 @@
       <c r="S24" s="194"/>
       <c r="V24" s="199"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.35">
       <c r="C25" s="55" t="s">
         <v>47</v>
       </c>
@@ -6746,7 +7044,7 @@
       <c r="S25" s="200"/>
       <c r="V25" s="199"/>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.35">
       <c r="C26" s="56" t="s">
         <v>48</v>
       </c>
@@ -6756,7 +7054,7 @@
       <c r="S26" s="200"/>
       <c r="V26" s="199"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.35">
       <c r="C27" s="11" t="s">
         <v>49</v>
       </c>
@@ -6767,7 +7065,7 @@
       <c r="U27" s="159"/>
       <c r="V27" s="199"/>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.35">
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="L28" s="159"/>
@@ -6776,7 +7074,7 @@
       <c r="U28" s="159"/>
       <c r="V28" s="199"/>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.35">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -6787,7 +7085,7 @@
       <c r="U29" s="159"/>
       <c r="V29" s="199"/>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.35">
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -6798,7 +7096,7 @@
       <c r="U30" s="159"/>
       <c r="V30" s="199"/>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.35">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -6809,7 +7107,7 @@
       <c r="U31" s="159"/>
       <c r="V31" s="199"/>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.35">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -6819,7 +7117,7 @@
       <c r="S32" s="194"/>
       <c r="U32" s="159"/>
     </row>
-    <row r="33" spans="3:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="165"/>
       <c r="D33" s="165"/>
       <c r="E33" s="59"/>
@@ -6829,91 +7127,91 @@
       <c r="S33" s="195"/>
       <c r="U33" s="159"/>
     </row>
-    <row r="34" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:21" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C34" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="285" t="s">
+      <c r="D34" s="292" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="285"/>
-      <c r="F34" s="285"/>
+      <c r="E34" s="292"/>
+      <c r="F34" s="292"/>
       <c r="L34" s="159"/>
       <c r="N34" s="159"/>
       <c r="U34" s="159"/>
     </row>
-    <row r="35" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C35" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="280" t="s">
+      <c r="D35" s="287" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="280"/>
-      <c r="F35" s="280"/>
+      <c r="E35" s="287"/>
+      <c r="F35" s="287"/>
       <c r="L35" s="159"/>
       <c r="N35" s="159"/>
       <c r="U35" s="159"/>
     </row>
-    <row r="36" spans="3:21" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:21" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="281" t="s">
+      <c r="D36" s="288" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="281"/>
-      <c r="F36" s="281"/>
+      <c r="E36" s="288"/>
+      <c r="F36" s="288"/>
       <c r="L36" s="159"/>
       <c r="N36" s="159"/>
       <c r="U36" s="159"/>
     </row>
-    <row r="37" spans="3:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="281" t="s">
+      <c r="D37" s="288" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="281"/>
-      <c r="F37" s="281"/>
+      <c r="E37" s="288"/>
+      <c r="F37" s="288"/>
       <c r="L37" s="159"/>
       <c r="N37" s="159"/>
       <c r="U37" s="159"/>
     </row>
-    <row r="38" spans="3:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="282" t="s">
+      <c r="D38" s="289" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="282"/>
-      <c r="F38" s="282"/>
+      <c r="E38" s="289"/>
+      <c r="F38" s="289"/>
       <c r="L38" s="159"/>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C39" s="63"/>
       <c r="D39" s="64"/>
       <c r="E39" s="64"/>
       <c r="F39" s="64"/>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:21" x14ac:dyDescent="0.35">
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:21" x14ac:dyDescent="0.35">
       <c r="D43" s="12"/>
     </row>
   </sheetData>
@@ -6948,63 +7246,63 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="20.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="61.28515625" style="7" customWidth="1"/>
+    <col min="1" max="2" width="9.1328125" style="7"/>
+    <col min="3" max="3" width="20.1328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="61.265625" style="7" customWidth="1"/>
     <col min="7" max="7" width="17" style="7" customWidth="1"/>
-    <col min="8" max="9" width="16.85546875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="7" customWidth="1"/>
+    <col min="8" max="9" width="16.86328125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.86328125" style="7" customWidth="1"/>
     <col min="11" max="11" width="18" style="7" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="17.86328125" style="7" customWidth="1"/>
     <col min="13" max="13" width="18" style="7" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="11" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="17.73046875" style="11" customWidth="1"/>
+    <col min="15" max="15" width="17.73046875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="18.265625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="16.73046875" style="7" customWidth="1"/>
     <col min="18" max="18" width="14" style="7" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" style="7" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" style="7" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="7" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="7"/>
+    <col min="19" max="19" width="13.86328125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="15.1328125" style="7" customWidth="1"/>
+    <col min="21" max="21" width="13.73046875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="15.1328125" style="7" customWidth="1"/>
+    <col min="23" max="23" width="12.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:44" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:44" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:44" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:44" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B6" s="283" t="s">
+    <row r="6" spans="2:44" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="B6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="283" t="s">
+      <c r="C6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="283" t="s">
+      <c r="D6" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="283" t="s">
+      <c r="E6" s="290" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="283" t="s">
+      <c r="F6" s="290" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -7066,14 +7364,14 @@
       </c>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="284" t="s">
+    <row r="7" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
       <c r="G7" s="108">
         <v>42198</v>
       </c>
@@ -7132,7 +7430,7 @@
         <v>42537</v>
       </c>
     </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B8" s="11">
         <v>1</v>
       </c>
@@ -7208,7 +7506,7 @@
       <c r="Z8" s="6"/>
       <c r="AR8" s="16"/>
     </row>
-    <row r="9" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B9" s="11">
         <v>2</v>
       </c>
@@ -7283,7 +7581,7 @@
       </c>
       <c r="AR9" s="16"/>
     </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B10" s="11">
         <v>3</v>
       </c>
@@ -7359,7 +7657,7 @@
       <c r="Z10" s="6"/>
       <c r="AR10" s="16"/>
     </row>
-    <row r="11" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -7434,7 +7732,7 @@
       </c>
       <c r="AR11" s="16"/>
     </row>
-    <row r="12" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -7510,7 +7808,7 @@
       <c r="Z12" s="6"/>
       <c r="AR12" s="16"/>
     </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -7585,7 +7883,7 @@
       </c>
       <c r="AR13" s="16"/>
     </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -7661,7 +7959,7 @@
       <c r="Z14" s="6"/>
       <c r="AR14" s="16"/>
     </row>
-    <row r="15" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B15" s="11">
         <v>8</v>
       </c>
@@ -7736,7 +8034,7 @@
       </c>
       <c r="AR15" s="16"/>
     </row>
-    <row r="16" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B16" s="11">
         <v>9</v>
       </c>
@@ -7812,7 +8110,7 @@
       <c r="Z16" s="6"/>
       <c r="AR16" s="16"/>
     </row>
-    <row r="17" spans="2:44" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:44" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="28">
         <v>10</v>
       </c>
@@ -7892,7 +8190,7 @@
       <c r="AD17" s="7"/>
       <c r="AR17" s="38"/>
     </row>
-    <row r="18" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:44" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="39">
         <v>11</v>
       </c>
@@ -7968,49 +8266,49 @@
       <c r="Z18" s="6"/>
       <c r="AR18" s="16"/>
     </row>
-    <row r="19" spans="2:44" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:44" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="80"/>
       <c r="C19" s="81"/>
       <c r="D19" s="82"/>
       <c r="E19" s="82"/>
       <c r="N19" s="80"/>
     </row>
-    <row r="20" spans="2:44" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:44" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="80"/>
       <c r="C20" s="81"/>
       <c r="D20" s="82"/>
       <c r="E20" s="82"/>
       <c r="N20" s="80"/>
     </row>
-    <row r="21" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:44" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C21" s="49" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="49"/>
     </row>
-    <row r="22" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:44" x14ac:dyDescent="0.35">
       <c r="C22" s="52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:44" x14ac:dyDescent="0.35">
       <c r="C23" s="53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:44" x14ac:dyDescent="0.35">
       <c r="C24" s="54" t="s">
         <v>46</v>
       </c>
       <c r="N24" s="162"/>
     </row>
-    <row r="25" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:44" x14ac:dyDescent="0.35">
       <c r="C25" s="55" t="s">
         <v>47</v>
       </c>
       <c r="N25" s="162"/>
     </row>
-    <row r="26" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:44" x14ac:dyDescent="0.35">
       <c r="C26" s="56" t="s">
         <v>48</v>
       </c>
@@ -8018,7 +8316,7 @@
       <c r="R26" s="161"/>
       <c r="V26" s="163"/>
     </row>
-    <row r="27" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:44" x14ac:dyDescent="0.35">
       <c r="C27" s="11" t="s">
         <v>49</v>
       </c>
@@ -8026,22 +8324,22 @@
       <c r="R27" s="161"/>
       <c r="V27" s="163"/>
     </row>
-    <row r="28" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:44" x14ac:dyDescent="0.35">
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="R28" s="161"/>
       <c r="V28" s="163"/>
     </row>
-    <row r="29" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="287" t="s">
+    <row r="29" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="294" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="287"/>
-      <c r="E29" s="287"/>
-      <c r="F29" s="287"/>
-      <c r="G29" s="292"/>
-      <c r="H29" s="292"/>
-      <c r="I29" s="292"/>
+      <c r="D29" s="294"/>
+      <c r="E29" s="294"/>
+      <c r="F29" s="294"/>
+      <c r="G29" s="299"/>
+      <c r="H29" s="299"/>
+      <c r="I29" s="299"/>
       <c r="J29" s="1"/>
       <c r="K29" s="158"/>
       <c r="L29" s="159"/>
@@ -8059,16 +8357,16 @@
       <c r="X29" s="51"/>
       <c r="Y29" s="51"/>
     </row>
-    <row r="30" spans="2:44" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="287" t="s">
+    <row r="30" spans="2:44" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="294" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="289"/>
-      <c r="E30" s="290"/>
-      <c r="F30" s="290"/>
-      <c r="G30" s="291"/>
-      <c r="H30" s="291"/>
-      <c r="I30" s="291"/>
+      <c r="D30" s="296"/>
+      <c r="E30" s="297"/>
+      <c r="F30" s="297"/>
+      <c r="G30" s="298"/>
+      <c r="H30" s="298"/>
+      <c r="I30" s="298"/>
       <c r="J30" s="1"/>
       <c r="K30" s="158"/>
       <c r="L30" s="159"/>
@@ -8086,16 +8384,16 @@
       <c r="X30" s="51"/>
       <c r="Y30" s="51"/>
     </row>
-    <row r="31" spans="2:44" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="287" t="s">
+    <row r="31" spans="2:44" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="294" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="289"/>
-      <c r="E31" s="290"/>
-      <c r="F31" s="290"/>
-      <c r="G31" s="291"/>
-      <c r="H31" s="291"/>
-      <c r="I31" s="291"/>
+      <c r="D31" s="296"/>
+      <c r="E31" s="297"/>
+      <c r="F31" s="297"/>
+      <c r="G31" s="298"/>
+      <c r="H31" s="298"/>
+      <c r="I31" s="298"/>
       <c r="J31" s="1"/>
       <c r="K31" s="158"/>
       <c r="L31" s="159"/>
@@ -8113,16 +8411,16 @@
       <c r="X31" s="51"/>
       <c r="Y31" s="51"/>
     </row>
-    <row r="32" spans="2:44" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="287" t="s">
+    <row r="32" spans="2:44" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="294" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="287"/>
-      <c r="E32" s="290"/>
-      <c r="F32" s="290"/>
-      <c r="G32" s="291"/>
-      <c r="H32" s="291"/>
-      <c r="I32" s="291"/>
+      <c r="D32" s="294"/>
+      <c r="E32" s="297"/>
+      <c r="F32" s="297"/>
+      <c r="G32" s="298"/>
+      <c r="H32" s="298"/>
+      <c r="I32" s="298"/>
       <c r="J32" s="1"/>
       <c r="K32" s="158"/>
       <c r="L32" s="159"/>
@@ -8140,7 +8438,7 @@
       <c r="X32" s="51"/>
       <c r="Y32" s="51"/>
     </row>
-    <row r="33" spans="3:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:25" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="58"/>
       <c r="D33" s="58"/>
       <c r="E33" s="59"/>
@@ -8165,15 +8463,15 @@
       <c r="X33" s="51"/>
       <c r="Y33" s="51"/>
     </row>
-    <row r="34" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:25" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C34" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="285" t="s">
+      <c r="D34" s="292" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="285"/>
-      <c r="F34" s="285"/>
+      <c r="E34" s="292"/>
+      <c r="F34" s="292"/>
       <c r="G34" s="59"/>
       <c r="H34" s="59"/>
       <c r="I34" s="59"/>
@@ -8194,15 +8492,15 @@
       <c r="X34" s="51"/>
       <c r="Y34" s="51"/>
     </row>
-    <row r="35" spans="3:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C35" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="280" t="s">
+      <c r="D35" s="287" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="280"/>
-      <c r="F35" s="280"/>
+      <c r="E35" s="287"/>
+      <c r="F35" s="287"/>
       <c r="G35" s="59"/>
       <c r="H35" s="59"/>
       <c r="I35" s="59"/>
@@ -8223,15 +8521,15 @@
       <c r="X35" s="51"/>
       <c r="Y35" s="51"/>
     </row>
-    <row r="36" spans="3:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="280" t="s">
+      <c r="D36" s="287" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="280"/>
-      <c r="F36" s="280"/>
+      <c r="E36" s="287"/>
+      <c r="F36" s="287"/>
       <c r="G36" s="59"/>
       <c r="H36" s="59"/>
       <c r="I36" s="59"/>
@@ -8252,15 +8550,15 @@
       <c r="X36" s="51"/>
       <c r="Y36" s="51"/>
     </row>
-    <row r="37" spans="3:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="280" t="s">
+      <c r="D37" s="287" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="280"/>
-      <c r="F37" s="280"/>
+      <c r="E37" s="287"/>
+      <c r="F37" s="287"/>
       <c r="G37" s="59"/>
       <c r="H37" s="59"/>
       <c r="I37" s="59"/>
@@ -8281,15 +8579,15 @@
       <c r="X37" s="51"/>
       <c r="Y37" s="51"/>
     </row>
-    <row r="38" spans="3:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="282" t="s">
+      <c r="D38" s="289" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="282"/>
-      <c r="F38" s="282"/>
+      <c r="E38" s="289"/>
+      <c r="F38" s="289"/>
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
@@ -8301,7 +8599,7 @@
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
     </row>
-    <row r="39" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C39" s="63"/>
       <c r="D39" s="64"/>
       <c r="E39" s="64"/>
@@ -8316,31 +8614,31 @@
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
     </row>
-    <row r="40" spans="3:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="287" t="s">
+    <row r="40" spans="3:25" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="294" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="287"/>
-      <c r="E40" s="288"/>
-      <c r="F40" s="288"/>
-      <c r="G40" s="288"/>
-      <c r="H40" s="288"/>
-      <c r="I40" s="288"/>
+      <c r="D40" s="294"/>
+      <c r="E40" s="295"/>
+      <c r="F40" s="295"/>
+      <c r="G40" s="295"/>
+      <c r="H40" s="295"/>
+      <c r="I40" s="295"/>
       <c r="K40" s="157"/>
       <c r="N40" s="7"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
     </row>
-    <row r="41" spans="3:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="286" t="s">
+    <row r="41" spans="3:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="293" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="287"/>
-      <c r="E41" s="288"/>
-      <c r="F41" s="288"/>
-      <c r="G41" s="288"/>
-      <c r="H41" s="288"/>
-      <c r="I41" s="288"/>
+      <c r="D41" s="294"/>
+      <c r="E41" s="295"/>
+      <c r="F41" s="295"/>
+      <c r="G41" s="295"/>
+      <c r="H41" s="295"/>
+      <c r="I41" s="295"/>
       <c r="N41" s="7"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
@@ -8381,64 +8679,64 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="20.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="61.28515625" style="7" customWidth="1"/>
+    <col min="1" max="2" width="9.1328125" style="7"/>
+    <col min="3" max="3" width="20.1328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="61.265625" style="7" customWidth="1"/>
     <col min="7" max="7" width="17" style="7" customWidth="1"/>
-    <col min="8" max="9" width="16.85546875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="7" customWidth="1"/>
+    <col min="8" max="9" width="16.86328125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.86328125" style="7" customWidth="1"/>
     <col min="11" max="11" width="18" style="7" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="17.86328125" style="7" customWidth="1"/>
     <col min="13" max="13" width="18" style="7" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="11" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="17.73046875" style="11" customWidth="1"/>
+    <col min="15" max="15" width="17.73046875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="18.265625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="16.73046875" style="7" customWidth="1"/>
     <col min="18" max="18" width="14" style="7" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" style="7" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" style="7" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="7" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="7"/>
+    <col min="19" max="19" width="13.86328125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="15.1328125" style="7" customWidth="1"/>
+    <col min="21" max="21" width="13.73046875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="15.1328125" style="7" customWidth="1"/>
+    <col min="23" max="23" width="12.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:44" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:44" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:44" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:44" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:44" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:44" ht="14.25" x14ac:dyDescent="0.35">
       <c r="N4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B6" s="283" t="s">
+    <row r="5" spans="2:44" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:44" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="B6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="283" t="s">
+      <c r="C6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="283" t="s">
+      <c r="D6" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="283" t="s">
+      <c r="E6" s="290" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="283" t="s">
+      <c r="F6" s="290" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -8500,14 +8798,14 @@
       </c>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="284" t="s">
+    <row r="7" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
       <c r="G7" s="108">
         <v>42166</v>
       </c>
@@ -8566,7 +8864,7 @@
         <v>41842</v>
       </c>
     </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B8" s="11">
         <v>1</v>
       </c>
@@ -8642,7 +8940,7 @@
       <c r="Z8" s="6"/>
       <c r="AR8" s="16"/>
     </row>
-    <row r="9" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B9" s="11">
         <v>2</v>
       </c>
@@ -8717,7 +9015,7 @@
       </c>
       <c r="AR9" s="16"/>
     </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B10" s="11">
         <v>3</v>
       </c>
@@ -8793,7 +9091,7 @@
       <c r="Z10" s="6"/>
       <c r="AR10" s="16"/>
     </row>
-    <row r="11" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -8868,7 +9166,7 @@
       </c>
       <c r="AR11" s="16"/>
     </row>
-    <row r="12" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -8944,7 +9242,7 @@
       <c r="Z12" s="6"/>
       <c r="AR12" s="16"/>
     </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -9019,7 +9317,7 @@
       </c>
       <c r="AR13" s="16"/>
     </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -9095,7 +9393,7 @@
       <c r="Z14" s="6"/>
       <c r="AR14" s="16"/>
     </row>
-    <row r="15" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B15" s="11">
         <v>8</v>
       </c>
@@ -9170,7 +9468,7 @@
       </c>
       <c r="AR15" s="16"/>
     </row>
-    <row r="16" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B16" s="11">
         <v>9</v>
       </c>
@@ -9246,7 +9544,7 @@
       <c r="Z16" s="6"/>
       <c r="AR16" s="16"/>
     </row>
-    <row r="17" spans="2:44" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:44" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="28">
         <v>10</v>
       </c>
@@ -9326,7 +9624,7 @@
       <c r="AD17" s="7"/>
       <c r="AR17" s="38"/>
     </row>
-    <row r="18" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B18" s="125">
         <v>11</v>
       </c>
@@ -9402,72 +9700,72 @@
       <c r="Z18" s="6"/>
       <c r="AR18" s="16"/>
     </row>
-    <row r="19" spans="2:44" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:44" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="80"/>
       <c r="C19" s="81"/>
       <c r="D19" s="82"/>
       <c r="E19" s="82"/>
       <c r="N19" s="80"/>
     </row>
-    <row r="20" spans="2:44" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:44" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="80"/>
       <c r="C20" s="81"/>
       <c r="D20" s="82"/>
       <c r="E20" s="82"/>
       <c r="N20" s="80"/>
     </row>
-    <row r="21" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:44" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C21" s="49" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="49"/>
     </row>
-    <row r="22" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:44" x14ac:dyDescent="0.35">
       <c r="C22" s="52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:44" x14ac:dyDescent="0.35">
       <c r="C23" s="53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:44" x14ac:dyDescent="0.35">
       <c r="C24" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:44" x14ac:dyDescent="0.35">
       <c r="C25" s="55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:44" x14ac:dyDescent="0.35">
       <c r="C26" s="56" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:44" x14ac:dyDescent="0.35">
       <c r="C27" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:44" x14ac:dyDescent="0.35">
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="287" t="s">
+    <row r="29" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="294" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="287"/>
-      <c r="E29" s="287"/>
-      <c r="F29" s="287"/>
-      <c r="G29" s="292"/>
-      <c r="H29" s="292"/>
-      <c r="I29" s="292"/>
+      <c r="D29" s="294"/>
+      <c r="E29" s="294"/>
+      <c r="F29" s="294"/>
+      <c r="G29" s="299"/>
+      <c r="H29" s="299"/>
+      <c r="I29" s="299"/>
       <c r="J29" s="1"/>
       <c r="K29" s="2"/>
       <c r="L29" s="16"/>
@@ -9485,16 +9783,16 @@
       <c r="X29" s="51"/>
       <c r="Y29" s="51"/>
     </row>
-    <row r="30" spans="2:44" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="287" t="s">
+    <row r="30" spans="2:44" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="294" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="289"/>
-      <c r="E30" s="290"/>
-      <c r="F30" s="290"/>
-      <c r="G30" s="291"/>
-      <c r="H30" s="291"/>
-      <c r="I30" s="291"/>
+      <c r="D30" s="296"/>
+      <c r="E30" s="297"/>
+      <c r="F30" s="297"/>
+      <c r="G30" s="298"/>
+      <c r="H30" s="298"/>
+      <c r="I30" s="298"/>
       <c r="J30" s="1"/>
       <c r="K30" s="2"/>
       <c r="L30" s="16"/>
@@ -9512,16 +9810,16 @@
       <c r="X30" s="51"/>
       <c r="Y30" s="51"/>
     </row>
-    <row r="31" spans="2:44" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="287" t="s">
+    <row r="31" spans="2:44" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="294" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="289"/>
-      <c r="E31" s="290"/>
-      <c r="F31" s="290"/>
-      <c r="G31" s="291"/>
-      <c r="H31" s="291"/>
-      <c r="I31" s="291"/>
+      <c r="D31" s="296"/>
+      <c r="E31" s="297"/>
+      <c r="F31" s="297"/>
+      <c r="G31" s="298"/>
+      <c r="H31" s="298"/>
+      <c r="I31" s="298"/>
       <c r="J31" s="1"/>
       <c r="K31" s="2"/>
       <c r="L31" s="16"/>
@@ -9539,16 +9837,16 @@
       <c r="X31" s="51"/>
       <c r="Y31" s="51"/>
     </row>
-    <row r="32" spans="2:44" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="287" t="s">
+    <row r="32" spans="2:44" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="294" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="287"/>
-      <c r="E32" s="290"/>
-      <c r="F32" s="290"/>
-      <c r="G32" s="291"/>
-      <c r="H32" s="291"/>
-      <c r="I32" s="291"/>
+      <c r="D32" s="294"/>
+      <c r="E32" s="297"/>
+      <c r="F32" s="297"/>
+      <c r="G32" s="298"/>
+      <c r="H32" s="298"/>
+      <c r="I32" s="298"/>
       <c r="J32" s="1"/>
       <c r="K32" s="2"/>
       <c r="L32" s="16"/>
@@ -9566,7 +9864,7 @@
       <c r="X32" s="51"/>
       <c r="Y32" s="51"/>
     </row>
-    <row r="33" spans="3:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:25" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="58"/>
       <c r="D33" s="58"/>
       <c r="E33" s="59"/>
@@ -9591,15 +9889,15 @@
       <c r="X33" s="51"/>
       <c r="Y33" s="51"/>
     </row>
-    <row r="34" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:25" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C34" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="285" t="s">
+      <c r="D34" s="292" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="285"/>
-      <c r="F34" s="285"/>
+      <c r="E34" s="292"/>
+      <c r="F34" s="292"/>
       <c r="G34" s="59"/>
       <c r="H34" s="59"/>
       <c r="I34" s="59"/>
@@ -9620,15 +9918,15 @@
       <c r="X34" s="51"/>
       <c r="Y34" s="51"/>
     </row>
-    <row r="35" spans="3:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C35" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="280" t="s">
+      <c r="D35" s="287" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="280"/>
-      <c r="F35" s="280"/>
+      <c r="E35" s="287"/>
+      <c r="F35" s="287"/>
       <c r="G35" s="59"/>
       <c r="H35" s="59"/>
       <c r="I35" s="59"/>
@@ -9649,15 +9947,15 @@
       <c r="X35" s="51"/>
       <c r="Y35" s="51"/>
     </row>
-    <row r="36" spans="3:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="280" t="s">
+      <c r="D36" s="287" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="280"/>
-      <c r="F36" s="280"/>
+      <c r="E36" s="287"/>
+      <c r="F36" s="287"/>
       <c r="G36" s="59"/>
       <c r="H36" s="59"/>
       <c r="I36" s="59"/>
@@ -9678,15 +9976,15 @@
       <c r="X36" s="51"/>
       <c r="Y36" s="51"/>
     </row>
-    <row r="37" spans="3:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="280" t="s">
+      <c r="D37" s="287" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="280"/>
-      <c r="F37" s="280"/>
+      <c r="E37" s="287"/>
+      <c r="F37" s="287"/>
       <c r="G37" s="59"/>
       <c r="H37" s="59"/>
       <c r="I37" s="59"/>
@@ -9707,15 +10005,15 @@
       <c r="X37" s="51"/>
       <c r="Y37" s="51"/>
     </row>
-    <row r="38" spans="3:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="282" t="s">
+      <c r="D38" s="289" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="282"/>
-      <c r="F38" s="282"/>
+      <c r="E38" s="289"/>
+      <c r="F38" s="289"/>
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
@@ -9724,7 +10022,7 @@
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
     </row>
-    <row r="39" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C39" s="63"/>
       <c r="D39" s="64"/>
       <c r="E39" s="64"/>
@@ -9736,38 +10034,38 @@
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
     </row>
-    <row r="40" spans="3:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="287" t="s">
+    <row r="40" spans="3:25" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="294" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="287"/>
-      <c r="E40" s="288"/>
-      <c r="F40" s="288"/>
-      <c r="G40" s="288"/>
-      <c r="H40" s="288"/>
-      <c r="I40" s="288"/>
+      <c r="D40" s="294"/>
+      <c r="E40" s="295"/>
+      <c r="F40" s="295"/>
+      <c r="G40" s="295"/>
+      <c r="H40" s="295"/>
+      <c r="I40" s="295"/>
       <c r="N40" s="7"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
     </row>
-    <row r="41" spans="3:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="286" t="s">
+    <row r="41" spans="3:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="293" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="287"/>
-      <c r="E41" s="288"/>
-      <c r="F41" s="288"/>
-      <c r="G41" s="288"/>
-      <c r="H41" s="288"/>
-      <c r="I41" s="288"/>
+      <c r="D41" s="294"/>
+      <c r="E41" s="295"/>
+      <c r="F41" s="295"/>
+      <c r="G41" s="295"/>
+      <c r="H41" s="295"/>
+      <c r="I41" s="295"/>
       <c r="N41" s="7"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
     </row>
-    <row r="42" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D43" s="12"/>
     </row>
   </sheetData>
@@ -9808,64 +10106,64 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="7"/>
+    <col min="1" max="2" width="9.1328125" style="7"/>
     <col min="3" max="3" width="24" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="58.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="58.1328125" style="7" customWidth="1"/>
     <col min="7" max="7" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="7"/>
+    <col min="8" max="8" width="12.73046875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="16.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25" ht="14.25" x14ac:dyDescent="0.35">
       <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B6" s="283" t="s">
+    <row r="5" spans="2:25" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:25" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="B6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="283" t="s">
+      <c r="C6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="283" t="s">
+      <c r="D6" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="283" t="s">
+      <c r="E6" s="290" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="283" t="s">
+      <c r="F6" s="290" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -9924,14 +10222,14 @@
       </c>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="284" t="s">
+    <row r="7" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
       <c r="G7" s="108">
         <v>41800</v>
       </c>
@@ -9988,7 +10286,7 @@
       </c>
       <c r="Y7" s="7"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B8" s="11">
         <v>1</v>
       </c>
@@ -10060,7 +10358,7 @@
       </c>
       <c r="Y8" s="16"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B9" s="11">
         <v>2</v>
       </c>
@@ -10132,7 +10430,7 @@
       </c>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B10" s="11">
         <v>3</v>
       </c>
@@ -10204,7 +10502,7 @@
       </c>
       <c r="Y10" s="16"/>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -10276,7 +10574,7 @@
       </c>
       <c r="Y11" s="16"/>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -10348,7 +10646,7 @@
       </c>
       <c r="Y12" s="16"/>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -10420,7 +10718,7 @@
       </c>
       <c r="Y13" s="16"/>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -10492,7 +10790,7 @@
       </c>
       <c r="Y14" s="16"/>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B15" s="11">
         <v>8</v>
       </c>
@@ -10564,7 +10862,7 @@
       </c>
       <c r="Y15" s="16"/>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B16" s="11">
         <v>9</v>
       </c>
@@ -10636,7 +10934,7 @@
       </c>
       <c r="Y16" s="16"/>
     </row>
-    <row r="17" spans="2:25" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="28">
         <v>10</v>
       </c>
@@ -10708,7 +11006,7 @@
       </c>
       <c r="Y17" s="38"/>
     </row>
-    <row r="18" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="39">
         <v>11</v>
       </c>
@@ -10780,7 +11078,7 @@
       </c>
       <c r="Y18" s="16"/>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B19" s="28"/>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
@@ -10791,7 +11089,7 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C20" s="49" t="s">
         <v>43</v>
       </c>
@@ -10815,7 +11113,7 @@
       <c r="X20" s="51"/>
       <c r="Y20" s="51"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.35">
       <c r="C21" s="52" t="s">
         <v>44</v>
       </c>
@@ -10839,7 +11137,7 @@
       <c r="X21" s="51"/>
       <c r="Y21" s="51"/>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.35">
       <c r="C22" s="53" t="s">
         <v>45</v>
       </c>
@@ -10860,7 +11158,7 @@
       <c r="X22" s="51"/>
       <c r="Y22" s="51"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.35">
       <c r="C23" s="54" t="s">
         <v>46</v>
       </c>
@@ -10884,7 +11182,7 @@
       <c r="X23" s="51"/>
       <c r="Y23" s="51"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.35">
       <c r="C24" s="55" t="s">
         <v>47</v>
       </c>
@@ -10909,7 +11207,7 @@
       <c r="X24" s="51"/>
       <c r="Y24" s="51"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.35">
       <c r="C25" s="56" t="s">
         <v>48</v>
       </c>
@@ -10934,7 +11232,7 @@
       <c r="X25" s="51"/>
       <c r="Y25" s="51"/>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.35">
       <c r="C26" s="11" t="s">
         <v>49</v>
       </c>
@@ -10959,7 +11257,7 @@
       <c r="X26" s="51"/>
       <c r="Y26" s="51"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.35">
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="G27" s="16"/>
@@ -10982,16 +11280,16 @@
       <c r="X27" s="51"/>
       <c r="Y27" s="51"/>
     </row>
-    <row r="28" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="287" t="s">
+    <row r="28" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="294" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="287"/>
-      <c r="E28" s="287"/>
-      <c r="F28" s="287"/>
-      <c r="G28" s="292"/>
-      <c r="H28" s="292"/>
-      <c r="I28" s="292"/>
+      <c r="D28" s="294"/>
+      <c r="E28" s="294"/>
+      <c r="F28" s="294"/>
+      <c r="G28" s="299"/>
+      <c r="H28" s="299"/>
+      <c r="I28" s="299"/>
       <c r="J28" s="1"/>
       <c r="K28" s="2"/>
       <c r="L28" s="16"/>
@@ -11009,16 +11307,16 @@
       <c r="X28" s="51"/>
       <c r="Y28" s="51"/>
     </row>
-    <row r="29" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="287" t="s">
+    <row r="29" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="294" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="289"/>
-      <c r="E29" s="290"/>
-      <c r="F29" s="290"/>
-      <c r="G29" s="291"/>
-      <c r="H29" s="291"/>
-      <c r="I29" s="291"/>
+      <c r="D29" s="296"/>
+      <c r="E29" s="297"/>
+      <c r="F29" s="297"/>
+      <c r="G29" s="298"/>
+      <c r="H29" s="298"/>
+      <c r="I29" s="298"/>
       <c r="J29" s="1"/>
       <c r="K29" s="2"/>
       <c r="L29" s="16"/>
@@ -11036,16 +11334,16 @@
       <c r="X29" s="51"/>
       <c r="Y29" s="51"/>
     </row>
-    <row r="30" spans="2:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="287" t="s">
+    <row r="30" spans="2:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="294" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="289"/>
-      <c r="E30" s="290"/>
-      <c r="F30" s="290"/>
-      <c r="G30" s="291"/>
-      <c r="H30" s="291"/>
-      <c r="I30" s="291"/>
+      <c r="D30" s="296"/>
+      <c r="E30" s="297"/>
+      <c r="F30" s="297"/>
+      <c r="G30" s="298"/>
+      <c r="H30" s="298"/>
+      <c r="I30" s="298"/>
       <c r="J30" s="1"/>
       <c r="K30" s="2"/>
       <c r="L30" s="16"/>
@@ -11063,16 +11361,16 @@
       <c r="X30" s="51"/>
       <c r="Y30" s="51"/>
     </row>
-    <row r="31" spans="2:25" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="287" t="s">
+    <row r="31" spans="2:25" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="294" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="287"/>
-      <c r="E31" s="290"/>
-      <c r="F31" s="290"/>
-      <c r="G31" s="291"/>
-      <c r="H31" s="291"/>
-      <c r="I31" s="291"/>
+      <c r="D31" s="294"/>
+      <c r="E31" s="297"/>
+      <c r="F31" s="297"/>
+      <c r="G31" s="298"/>
+      <c r="H31" s="298"/>
+      <c r="I31" s="298"/>
       <c r="J31" s="1"/>
       <c r="K31" s="2"/>
       <c r="L31" s="16"/>
@@ -11090,7 +11388,7 @@
       <c r="X31" s="51"/>
       <c r="Y31" s="51"/>
     </row>
-    <row r="32" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:25" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C32" s="58"/>
       <c r="D32" s="58"/>
       <c r="E32" s="59"/>
@@ -11115,15 +11413,15 @@
       <c r="X32" s="51"/>
       <c r="Y32" s="51"/>
     </row>
-    <row r="33" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:25" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="285" t="s">
+      <c r="D33" s="292" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="285"/>
-      <c r="F33" s="285"/>
+      <c r="E33" s="292"/>
+      <c r="F33" s="292"/>
       <c r="G33" s="59"/>
       <c r="H33" s="59"/>
       <c r="I33" s="59"/>
@@ -11144,15 +11442,15 @@
       <c r="X33" s="51"/>
       <c r="Y33" s="51"/>
     </row>
-    <row r="34" spans="3:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C34" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="280" t="s">
+      <c r="D34" s="287" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="280"/>
-      <c r="F34" s="280"/>
+      <c r="E34" s="287"/>
+      <c r="F34" s="287"/>
       <c r="G34" s="59"/>
       <c r="H34" s="59"/>
       <c r="I34" s="59"/>
@@ -11173,15 +11471,15 @@
       <c r="X34" s="51"/>
       <c r="Y34" s="51"/>
     </row>
-    <row r="35" spans="3:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C35" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="280" t="s">
+      <c r="D35" s="287" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="280"/>
-      <c r="F35" s="280"/>
+      <c r="E35" s="287"/>
+      <c r="F35" s="287"/>
       <c r="G35" s="59"/>
       <c r="H35" s="59"/>
       <c r="I35" s="59"/>
@@ -11202,15 +11500,15 @@
       <c r="X35" s="51"/>
       <c r="Y35" s="51"/>
     </row>
-    <row r="36" spans="3:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="280" t="s">
+      <c r="D36" s="287" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="280"/>
-      <c r="F36" s="280"/>
+      <c r="E36" s="287"/>
+      <c r="F36" s="287"/>
       <c r="G36" s="59"/>
       <c r="H36" s="59"/>
       <c r="I36" s="59"/>
@@ -11231,21 +11529,21 @@
       <c r="X36" s="51"/>
       <c r="Y36" s="51"/>
     </row>
-    <row r="37" spans="3:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C37" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="282" t="s">
+      <c r="D37" s="289" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="282"/>
-      <c r="F37" s="282"/>
+      <c r="E37" s="289"/>
+      <c r="F37" s="289"/>
       <c r="G37" s="59"/>
       <c r="H37" s="59"/>
       <c r="I37" s="59"/>
       <c r="Q37" s="6"/>
     </row>
-    <row r="38" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C38" s="63"/>
       <c r="D38" s="64"/>
       <c r="E38" s="64"/>
@@ -11254,59 +11552,59 @@
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
     </row>
-    <row r="39" spans="3:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="287" t="s">
+    <row r="39" spans="3:25" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="294" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="287"/>
-      <c r="E39" s="288"/>
-      <c r="F39" s="288"/>
-      <c r="G39" s="288"/>
-      <c r="H39" s="288"/>
-      <c r="I39" s="288"/>
-    </row>
-    <row r="40" spans="3:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="286" t="s">
+      <c r="D39" s="294"/>
+      <c r="E39" s="295"/>
+      <c r="F39" s="295"/>
+      <c r="G39" s="295"/>
+      <c r="H39" s="295"/>
+      <c r="I39" s="295"/>
+    </row>
+    <row r="40" spans="3:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="293" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="287"/>
-      <c r="E40" s="288"/>
-      <c r="F40" s="288"/>
-      <c r="G40" s="288"/>
-      <c r="H40" s="288"/>
-      <c r="I40" s="288"/>
-    </row>
-    <row r="41" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="D40" s="294"/>
+      <c r="E40" s="295"/>
+      <c r="F40" s="295"/>
+      <c r="G40" s="295"/>
+      <c r="H40" s="295"/>
+      <c r="I40" s="295"/>
+    </row>
+    <row r="41" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D48" s="12"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" s="12"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" s="12"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" s="12"/>
     </row>
   </sheetData>
@@ -11346,90 +11644,90 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="20.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="61.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="7" customWidth="1"/>
+    <col min="1" max="2" width="9.1328125" style="7"/>
+    <col min="3" max="3" width="20.1328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="61.265625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.73046875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.73046875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="18.265625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="16.73046875" style="7" customWidth="1"/>
     <col min="11" max="11" width="14" style="7" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="7" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="7" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="7" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="7" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="7" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" style="7" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="13.86328125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.1328125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="13.73046875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="15.1328125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="13.3984375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="14.3984375" style="7" customWidth="1"/>
+    <col min="18" max="18" width="13.59765625" style="7" customWidth="1"/>
+    <col min="19" max="19" width="14.265625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="13.59765625" style="7" customWidth="1"/>
+    <col min="21" max="21" width="14.59765625" style="7" customWidth="1"/>
+    <col min="22" max="22" width="14.86328125" style="7" customWidth="1"/>
+    <col min="23" max="23" width="14.1328125" style="7" customWidth="1"/>
+    <col min="24" max="24" width="14.86328125" style="7" customWidth="1"/>
     <col min="25" max="25" width="16" style="7" customWidth="1"/>
-    <col min="26" max="26" width="16.140625" style="11" customWidth="1"/>
-    <col min="27" max="27" width="15.5703125" style="7" customWidth="1"/>
-    <col min="28" max="28" width="15.85546875" style="7" customWidth="1"/>
-    <col min="29" max="29" width="15.42578125" style="7" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" style="7" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" style="7" customWidth="1"/>
-    <col min="32" max="32" width="14.5703125" style="7" customWidth="1"/>
-    <col min="33" max="33" width="15.140625" style="7" customWidth="1"/>
-    <col min="34" max="35" width="15.5703125" style="7" customWidth="1"/>
-    <col min="36" max="36" width="15.7109375" style="7" customWidth="1"/>
-    <col min="37" max="37" width="15.28515625" style="7" customWidth="1"/>
-    <col min="38" max="38" width="14.5703125" style="7" customWidth="1"/>
-    <col min="39" max="39" width="15.28515625" style="7" customWidth="1"/>
-    <col min="40" max="40" width="15.42578125" style="7" customWidth="1"/>
-    <col min="41" max="41" width="14.42578125" style="7" customWidth="1"/>
-    <col min="42" max="42" width="14.85546875" style="7" customWidth="1"/>
-    <col min="43" max="43" width="15.28515625" style="7" customWidth="1"/>
-    <col min="44" max="44" width="15.140625" style="7" customWidth="1"/>
-    <col min="45" max="45" width="14.7109375" style="7" customWidth="1"/>
-    <col min="46" max="46" width="12.42578125" style="7" customWidth="1"/>
-    <col min="47" max="47" width="12.7109375" style="7" customWidth="1"/>
-    <col min="48" max="49" width="13.42578125" style="7" customWidth="1"/>
-    <col min="50" max="50" width="12.7109375" style="7" customWidth="1"/>
+    <col min="26" max="26" width="16.1328125" style="11" customWidth="1"/>
+    <col min="27" max="27" width="15.59765625" style="7" customWidth="1"/>
+    <col min="28" max="28" width="15.86328125" style="7" customWidth="1"/>
+    <col min="29" max="29" width="15.3984375" style="7" customWidth="1"/>
+    <col min="30" max="30" width="15.59765625" style="7" customWidth="1"/>
+    <col min="31" max="31" width="13.3984375" style="7" customWidth="1"/>
+    <col min="32" max="32" width="14.59765625" style="7" customWidth="1"/>
+    <col min="33" max="33" width="15.1328125" style="7" customWidth="1"/>
+    <col min="34" max="35" width="15.59765625" style="7" customWidth="1"/>
+    <col min="36" max="36" width="15.73046875" style="7" customWidth="1"/>
+    <col min="37" max="37" width="15.265625" style="7" customWidth="1"/>
+    <col min="38" max="38" width="14.59765625" style="7" customWidth="1"/>
+    <col min="39" max="39" width="15.265625" style="7" customWidth="1"/>
+    <col min="40" max="40" width="15.3984375" style="7" customWidth="1"/>
+    <col min="41" max="41" width="14.3984375" style="7" customWidth="1"/>
+    <col min="42" max="42" width="14.86328125" style="7" customWidth="1"/>
+    <col min="43" max="43" width="15.265625" style="7" customWidth="1"/>
+    <col min="44" max="44" width="15.1328125" style="7" customWidth="1"/>
+    <col min="45" max="45" width="14.73046875" style="7" customWidth="1"/>
+    <col min="46" max="46" width="12.3984375" style="7" customWidth="1"/>
+    <col min="47" max="47" width="12.73046875" style="7" customWidth="1"/>
+    <col min="48" max="49" width="13.3984375" style="7" customWidth="1"/>
+    <col min="50" max="50" width="12.73046875" style="7" customWidth="1"/>
     <col min="51" max="51" width="14" style="7" customWidth="1"/>
-    <col min="52" max="52" width="13.140625" style="7" customWidth="1"/>
-    <col min="53" max="16384" width="9.140625" style="7"/>
+    <col min="52" max="52" width="13.1328125" style="7" customWidth="1"/>
+    <col min="53" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:47" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:47" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:47" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:47" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:47" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:47" ht="14.25" x14ac:dyDescent="0.35">
       <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B6" s="283" t="s">
+    <row r="5" spans="2:47" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:47" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="B6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="283" t="s">
+      <c r="C6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="283" t="s">
+      <c r="D6" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="283" t="s">
+      <c r="E6" s="290" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="283" t="s">
+      <c r="F6" s="290" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -11500,14 +11798,14 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="2:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="284" t="s">
+    <row r="7" spans="2:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
       <c r="G7" s="108">
         <v>41444</v>
       </c>
@@ -11575,7 +11873,7 @@
         <v>41106</v>
       </c>
     </row>
-    <row r="8" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B8" s="11">
         <v>1</v>
       </c>
@@ -11660,7 +11958,7 @@
       <c r="AC8" s="6"/>
       <c r="AU8" s="16"/>
     </row>
-    <row r="9" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B9" s="11">
         <v>2</v>
       </c>
@@ -11744,7 +12042,7 @@
       </c>
       <c r="AU9" s="16"/>
     </row>
-    <row r="10" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B10" s="11">
         <v>3</v>
       </c>
@@ -11829,7 +12127,7 @@
       <c r="AC10" s="6"/>
       <c r="AU10" s="16"/>
     </row>
-    <row r="11" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -11913,7 +12211,7 @@
       </c>
       <c r="AU11" s="16"/>
     </row>
-    <row r="12" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -11998,7 +12296,7 @@
       <c r="AC12" s="6"/>
       <c r="AU12" s="16"/>
     </row>
-    <row r="13" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -12082,7 +12380,7 @@
       </c>
       <c r="AU13" s="16"/>
     </row>
-    <row r="14" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -12167,7 +12465,7 @@
       <c r="AC14" s="6"/>
       <c r="AU14" s="16"/>
     </row>
-    <row r="15" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B15" s="11">
         <v>8</v>
       </c>
@@ -12251,7 +12549,7 @@
       </c>
       <c r="AU15" s="16"/>
     </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B16" s="11">
         <v>9</v>
       </c>
@@ -12336,7 +12634,7 @@
       <c r="AC16" s="6"/>
       <c r="AU16" s="16"/>
     </row>
-    <row r="17" spans="2:47" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:47" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="28">
         <v>10</v>
       </c>
@@ -12425,7 +12723,7 @@
       <c r="AG17" s="7"/>
       <c r="AU17" s="38"/>
     </row>
-    <row r="18" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B18" s="28">
         <v>11</v>
       </c>
@@ -12510,7 +12808,7 @@
       <c r="AC18" s="6"/>
       <c r="AU18" s="16"/>
     </row>
-    <row r="19" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="11">
         <v>12</v>
       </c>
@@ -12595,7 +12893,7 @@
       <c r="AC19" s="84"/>
       <c r="AU19" s="38"/>
     </row>
-    <row r="20" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="11">
         <v>13</v>
       </c>
@@ -12680,7 +12978,7 @@
       <c r="AC20" s="84"/>
       <c r="AU20" s="38"/>
     </row>
-    <row r="21" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="28">
         <v>14</v>
       </c>
@@ -12765,7 +13063,7 @@
       <c r="AC21" s="84"/>
       <c r="AU21" s="38"/>
     </row>
-    <row r="22" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="28">
         <v>15</v>
       </c>
@@ -12850,7 +13148,7 @@
       <c r="AC22" s="84"/>
       <c r="AU22" s="38"/>
     </row>
-    <row r="23" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="11">
         <v>16</v>
       </c>
@@ -12935,7 +13233,7 @@
       <c r="AC23" s="84"/>
       <c r="AU23" s="38"/>
     </row>
-    <row r="24" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="11">
         <v>17</v>
       </c>
@@ -13020,7 +13318,7 @@
       <c r="AC24" s="84"/>
       <c r="AU24" s="38"/>
     </row>
-    <row r="25" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="28">
         <v>18</v>
       </c>
@@ -13105,7 +13403,7 @@
       <c r="AC25" s="84"/>
       <c r="AU25" s="38"/>
     </row>
-    <row r="26" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="28">
         <v>19</v>
       </c>
@@ -13190,7 +13488,7 @@
       <c r="AC26" s="84"/>
       <c r="AU26" s="38"/>
     </row>
-    <row r="27" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="11">
         <v>20</v>
       </c>
@@ -13275,7 +13573,7 @@
       <c r="AC27" s="84"/>
       <c r="AU27" s="38"/>
     </row>
-    <row r="28" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="11">
         <v>21</v>
       </c>
@@ -13360,7 +13658,7 @@
       <c r="AC28" s="84"/>
       <c r="AU28" s="38"/>
     </row>
-    <row r="29" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="28">
         <v>22</v>
       </c>
@@ -13445,7 +13743,7 @@
       <c r="AC29" s="84"/>
       <c r="AU29" s="38"/>
     </row>
-    <row r="30" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="28">
         <v>23</v>
       </c>
@@ -13530,7 +13828,7 @@
       <c r="AC30" s="84"/>
       <c r="AU30" s="38"/>
     </row>
-    <row r="31" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B31" s="11">
         <v>24</v>
       </c>
@@ -13615,7 +13913,7 @@
       <c r="AC31" s="84"/>
       <c r="AU31" s="38"/>
     </row>
-    <row r="32" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="11">
         <v>25</v>
       </c>
@@ -13698,7 +13996,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="2:51" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:51" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B33" s="28">
         <v>26</v>
       </c>
@@ -13781,7 +14079,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="2:51" s="83" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:51" s="83" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="39">
         <v>27</v>
       </c>
@@ -13864,7 +14162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="2:51" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:51" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B35" s="80"/>
       <c r="C35" s="81"/>
       <c r="D35" s="82"/>
@@ -13872,7 +14170,7 @@
       <c r="G35" s="80"/>
       <c r="Z35" s="80"/>
     </row>
-    <row r="36" spans="2:51" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:51" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="80"/>
       <c r="C36" s="81"/>
       <c r="D36" s="82"/>
@@ -13880,86 +14178,86 @@
       <c r="G36" s="80"/>
       <c r="Z36" s="80"/>
     </row>
-    <row r="37" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:51" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C37" s="49" t="s">
         <v>43</v>
       </c>
       <c r="AY37" s="6"/>
     </row>
-    <row r="38" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:51" x14ac:dyDescent="0.35">
       <c r="C38" s="52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:51" x14ac:dyDescent="0.35">
       <c r="C39" s="53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:51" x14ac:dyDescent="0.35">
       <c r="C40" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:51" x14ac:dyDescent="0.35">
       <c r="C41" s="55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:51" x14ac:dyDescent="0.35">
       <c r="C42" s="56" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:51" x14ac:dyDescent="0.35">
       <c r="C43" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:51" x14ac:dyDescent="0.35">
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="2:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G45" s="7"/>
       <c r="Z45" s="7"/>
     </row>
-    <row r="46" spans="2:51" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="289" t="s">
+    <row r="46" spans="2:51" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="296" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="289"/>
-      <c r="D46" s="289"/>
-      <c r="E46" s="289"/>
-      <c r="F46" s="289"/>
-      <c r="G46" s="289"/>
+      <c r="C46" s="296"/>
+      <c r="D46" s="296"/>
+      <c r="E46" s="296"/>
+      <c r="F46" s="296"/>
+      <c r="G46" s="296"/>
       <c r="Z46" s="7"/>
     </row>
-    <row r="47" spans="2:51" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="289" t="s">
+    <row r="47" spans="2:51" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="296" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="289"/>
-      <c r="D47" s="289"/>
-      <c r="E47" s="289"/>
-      <c r="F47" s="289"/>
-      <c r="G47" s="289"/>
+      <c r="C47" s="296"/>
+      <c r="D47" s="296"/>
+      <c r="E47" s="296"/>
+      <c r="F47" s="296"/>
+      <c r="G47" s="296"/>
       <c r="Z47" s="7"/>
     </row>
-    <row r="48" spans="2:51" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="289" t="s">
+    <row r="48" spans="2:51" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="296" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="289"/>
-      <c r="D48" s="289"/>
-      <c r="E48" s="289"/>
-      <c r="F48" s="289"/>
-      <c r="G48" s="289"/>
+      <c r="C48" s="296"/>
+      <c r="D48" s="296"/>
+      <c r="E48" s="296"/>
+      <c r="F48" s="296"/>
+      <c r="G48" s="296"/>
       <c r="Z48" s="7"/>
     </row>
-    <row r="49" spans="2:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="124"/>
       <c r="C49" s="124"/>
       <c r="D49" s="124"/>
@@ -13968,72 +14266,72 @@
       <c r="G49" s="124"/>
       <c r="Z49" s="7"/>
     </row>
-    <row r="50" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:26" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B50" s="120"/>
       <c r="C50" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="285" t="s">
+      <c r="D50" s="292" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="285"/>
-      <c r="F50" s="285"/>
+      <c r="E50" s="292"/>
+      <c r="F50" s="292"/>
       <c r="G50" s="120"/>
       <c r="Z50" s="7"/>
     </row>
-    <row r="51" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="120"/>
       <c r="C51" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="295" t="s">
+      <c r="D51" s="302" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="295"/>
-      <c r="F51" s="295"/>
+      <c r="E51" s="302"/>
+      <c r="F51" s="302"/>
       <c r="G51" s="120"/>
       <c r="Z51" s="7"/>
     </row>
-    <row r="52" spans="2:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="120"/>
       <c r="C52" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="295" t="s">
+      <c r="D52" s="302" t="s">
         <v>58</v>
       </c>
-      <c r="E52" s="295"/>
-      <c r="F52" s="295"/>
+      <c r="E52" s="302"/>
+      <c r="F52" s="302"/>
       <c r="G52" s="120"/>
       <c r="Z52" s="7"/>
     </row>
-    <row r="53" spans="2:26" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:26" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="120"/>
       <c r="C53" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="295" t="s">
+      <c r="D53" s="302" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="295"/>
-      <c r="F53" s="295"/>
+      <c r="E53" s="302"/>
+      <c r="F53" s="302"/>
       <c r="G53" s="120"/>
       <c r="Z53" s="7"/>
     </row>
-    <row r="54" spans="2:26" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:26" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B54" s="120"/>
       <c r="C54" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="294" t="s">
+      <c r="D54" s="301" t="s">
         <v>61</v>
       </c>
-      <c r="E54" s="294"/>
-      <c r="F54" s="294"/>
+      <c r="E54" s="301"/>
+      <c r="F54" s="301"/>
       <c r="G54" s="120"/>
       <c r="Z54" s="7"/>
     </row>
-    <row r="55" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="120"/>
       <c r="C55" s="120"/>
       <c r="D55" s="120"/>
@@ -14042,7 +14340,7 @@
       <c r="G55" s="120"/>
       <c r="Z55" s="7"/>
     </row>
-    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B56" s="120"/>
       <c r="C56" s="120"/>
       <c r="D56" s="120"/>
@@ -14051,52 +14349,52 @@
       <c r="G56" s="120"/>
       <c r="Z56" s="7"/>
     </row>
-    <row r="57" spans="2:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="289" t="s">
+    <row r="57" spans="2:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="296" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="293"/>
-      <c r="D57" s="293"/>
-      <c r="E57" s="293"/>
-      <c r="F57" s="293"/>
-      <c r="G57" s="293"/>
+      <c r="C57" s="300"/>
+      <c r="D57" s="300"/>
+      <c r="E57" s="300"/>
+      <c r="F57" s="300"/>
+      <c r="G57" s="300"/>
       <c r="Z57" s="7"/>
     </row>
-    <row r="58" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G58" s="7"/>
       <c r="Z58" s="7"/>
     </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:26" x14ac:dyDescent="0.35">
       <c r="D59" s="12"/>
     </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:26" x14ac:dyDescent="0.35">
       <c r="D60" s="12"/>
     </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:26" x14ac:dyDescent="0.35">
       <c r="D61" s="12"/>
     </row>
-    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:26" x14ac:dyDescent="0.35">
       <c r="D62" s="12"/>
     </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:26" x14ac:dyDescent="0.35">
       <c r="D63" s="12"/>
     </row>
-    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:26" x14ac:dyDescent="0.35">
       <c r="D64" s="12"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D65" s="12"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D66" s="12"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D67" s="12"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D68" s="12"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D69" s="12"/>
     </row>
   </sheetData>
@@ -14135,64 +14433,64 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="7"/>
+    <col min="1" max="2" width="9.1328125" style="7"/>
     <col min="3" max="3" width="24" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="58.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="58.1328125" style="7" customWidth="1"/>
     <col min="7" max="7" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="7"/>
+    <col min="8" max="8" width="11.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="16.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:45" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:45" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:45" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:45" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:45" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:45" ht="14.25" x14ac:dyDescent="0.35">
       <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B6" s="283" t="s">
+    <row r="5" spans="2:45" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:45" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="283" t="s">
+      <c r="C6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="283" t="s">
+      <c r="D6" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="283" t="s">
+      <c r="E6" s="290" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="283" t="s">
+      <c r="F6" s="290" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="10" t="s">
@@ -14257,14 +14555,14 @@
       </c>
       <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="2:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="284" t="s">
+    <row r="7" spans="2:45" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
       <c r="G7" s="74">
         <v>41073</v>
       </c>
@@ -14327,7 +14625,7 @@
       </c>
       <c r="AA7" s="6"/>
     </row>
-    <row r="8" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B8" s="11">
         <v>1</v>
       </c>
@@ -14406,7 +14704,7 @@
       <c r="AA8" s="6"/>
       <c r="AS8" s="16"/>
     </row>
-    <row r="9" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B9" s="11">
         <v>2</v>
       </c>
@@ -14485,7 +14783,7 @@
       <c r="AA9" s="6"/>
       <c r="AS9" s="16"/>
     </row>
-    <row r="10" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B10" s="11">
         <v>3</v>
       </c>
@@ -14564,7 +14862,7 @@
       <c r="AA10" s="6"/>
       <c r="AS10" s="16"/>
     </row>
-    <row r="11" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -14643,7 +14941,7 @@
       <c r="AA11" s="6"/>
       <c r="AS11" s="16"/>
     </row>
-    <row r="12" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -14722,7 +15020,7 @@
       <c r="AA12" s="6"/>
       <c r="AS12" s="16"/>
     </row>
-    <row r="13" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -14801,7 +15099,7 @@
       <c r="AA13" s="6"/>
       <c r="AS13" s="16"/>
     </row>
-    <row r="14" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -14880,7 +15178,7 @@
       <c r="AA14" s="6"/>
       <c r="AS14" s="16"/>
     </row>
-    <row r="15" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B15" s="11">
         <v>8</v>
       </c>
@@ -14959,7 +15257,7 @@
       <c r="AA15" s="6"/>
       <c r="AS15" s="16"/>
     </row>
-    <row r="16" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B16" s="11">
         <v>9</v>
       </c>
@@ -15038,7 +15336,7 @@
       <c r="AA16" s="6"/>
       <c r="AS16" s="16"/>
     </row>
-    <row r="17" spans="2:45" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:45" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="28">
         <v>10</v>
       </c>
@@ -15116,7 +15414,7 @@
       </c>
       <c r="AS17" s="38"/>
     </row>
-    <row r="18" spans="2:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:45" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="39">
         <v>11</v>
       </c>
@@ -15195,7 +15493,7 @@
       <c r="AA18" s="6"/>
       <c r="AS18" s="16"/>
     </row>
-    <row r="19" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B19" s="28"/>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
@@ -15206,7 +15504,7 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
     </row>
-    <row r="20" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:45" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C20" s="49" t="s">
         <v>43</v>
       </c>
@@ -15230,7 +15528,7 @@
       <c r="X20" s="51"/>
       <c r="Y20" s="51"/>
     </row>
-    <row r="21" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:45" x14ac:dyDescent="0.35">
       <c r="C21" s="52" t="s">
         <v>44</v>
       </c>
@@ -15254,7 +15552,7 @@
       <c r="X21" s="51"/>
       <c r="Y21" s="51"/>
     </row>
-    <row r="22" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:45" x14ac:dyDescent="0.35">
       <c r="C22" s="53" t="s">
         <v>45</v>
       </c>
@@ -15275,7 +15573,7 @@
       <c r="X22" s="51"/>
       <c r="Y22" s="51"/>
     </row>
-    <row r="23" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:45" x14ac:dyDescent="0.35">
       <c r="C23" s="54" t="s">
         <v>46</v>
       </c>
@@ -15299,7 +15597,7 @@
       <c r="X23" s="51"/>
       <c r="Y23" s="51"/>
     </row>
-    <row r="24" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:45" x14ac:dyDescent="0.35">
       <c r="C24" s="55" t="s">
         <v>47</v>
       </c>
@@ -15324,7 +15622,7 @@
       <c r="X24" s="51"/>
       <c r="Y24" s="51"/>
     </row>
-    <row r="25" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:45" x14ac:dyDescent="0.35">
       <c r="C25" s="56" t="s">
         <v>48</v>
       </c>
@@ -15349,7 +15647,7 @@
       <c r="X25" s="51"/>
       <c r="Y25" s="51"/>
     </row>
-    <row r="26" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:45" x14ac:dyDescent="0.35">
       <c r="C26" s="11" t="s">
         <v>49</v>
       </c>
@@ -15374,7 +15672,7 @@
       <c r="X26" s="51"/>
       <c r="Y26" s="51"/>
     </row>
-    <row r="27" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:45" x14ac:dyDescent="0.35">
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="G27" s="16"/>
@@ -15397,16 +15695,16 @@
       <c r="X27" s="51"/>
       <c r="Y27" s="51"/>
     </row>
-    <row r="28" spans="2:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="287" t="s">
+    <row r="28" spans="2:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="294" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="287"/>
-      <c r="E28" s="287"/>
-      <c r="F28" s="287"/>
-      <c r="G28" s="292"/>
-      <c r="H28" s="292"/>
-      <c r="I28" s="292"/>
+      <c r="D28" s="294"/>
+      <c r="E28" s="294"/>
+      <c r="F28" s="294"/>
+      <c r="G28" s="299"/>
+      <c r="H28" s="299"/>
+      <c r="I28" s="299"/>
       <c r="J28" s="1"/>
       <c r="K28" s="2"/>
       <c r="L28" s="16"/>
@@ -15424,16 +15722,16 @@
       <c r="X28" s="51"/>
       <c r="Y28" s="51"/>
     </row>
-    <row r="29" spans="2:45" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="287" t="s">
+    <row r="29" spans="2:45" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="294" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="289"/>
-      <c r="E29" s="290"/>
-      <c r="F29" s="290"/>
-      <c r="G29" s="291"/>
-      <c r="H29" s="291"/>
-      <c r="I29" s="291"/>
+      <c r="D29" s="296"/>
+      <c r="E29" s="297"/>
+      <c r="F29" s="297"/>
+      <c r="G29" s="298"/>
+      <c r="H29" s="298"/>
+      <c r="I29" s="298"/>
       <c r="J29" s="1"/>
       <c r="K29" s="2"/>
       <c r="L29" s="16"/>
@@ -15451,16 +15749,16 @@
       <c r="X29" s="51"/>
       <c r="Y29" s="51"/>
     </row>
-    <row r="30" spans="2:45" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="287" t="s">
+    <row r="30" spans="2:45" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="294" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="289"/>
-      <c r="E30" s="290"/>
-      <c r="F30" s="290"/>
-      <c r="G30" s="291"/>
-      <c r="H30" s="291"/>
-      <c r="I30" s="291"/>
+      <c r="D30" s="296"/>
+      <c r="E30" s="297"/>
+      <c r="F30" s="297"/>
+      <c r="G30" s="298"/>
+      <c r="H30" s="298"/>
+      <c r="I30" s="298"/>
       <c r="J30" s="1"/>
       <c r="K30" s="2"/>
       <c r="L30" s="16"/>
@@ -15478,16 +15776,16 @@
       <c r="X30" s="51"/>
       <c r="Y30" s="51"/>
     </row>
-    <row r="31" spans="2:45" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="287" t="s">
+    <row r="31" spans="2:45" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="294" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="287"/>
-      <c r="E31" s="290"/>
-      <c r="F31" s="290"/>
-      <c r="G31" s="291"/>
-      <c r="H31" s="291"/>
-      <c r="I31" s="291"/>
+      <c r="D31" s="294"/>
+      <c r="E31" s="297"/>
+      <c r="F31" s="297"/>
+      <c r="G31" s="298"/>
+      <c r="H31" s="298"/>
+      <c r="I31" s="298"/>
       <c r="J31" s="1"/>
       <c r="K31" s="2"/>
       <c r="L31" s="16"/>
@@ -15505,7 +15803,7 @@
       <c r="X31" s="51"/>
       <c r="Y31" s="51"/>
     </row>
-    <row r="32" spans="2:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:45" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C32" s="58"/>
       <c r="D32" s="58"/>
       <c r="E32" s="59"/>
@@ -15530,15 +15828,15 @@
       <c r="X32" s="51"/>
       <c r="Y32" s="51"/>
     </row>
-    <row r="33" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:25" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="285" t="s">
+      <c r="D33" s="292" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="285"/>
-      <c r="F33" s="285"/>
+      <c r="E33" s="292"/>
+      <c r="F33" s="292"/>
       <c r="G33" s="59"/>
       <c r="H33" s="59"/>
       <c r="I33" s="59"/>
@@ -15559,15 +15857,15 @@
       <c r="X33" s="51"/>
       <c r="Y33" s="51"/>
     </row>
-    <row r="34" spans="3:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C34" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="280" t="s">
+      <c r="D34" s="287" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="280"/>
-      <c r="F34" s="280"/>
+      <c r="E34" s="287"/>
+      <c r="F34" s="287"/>
       <c r="G34" s="59"/>
       <c r="H34" s="59"/>
       <c r="I34" s="59"/>
@@ -15588,15 +15886,15 @@
       <c r="X34" s="51"/>
       <c r="Y34" s="51"/>
     </row>
-    <row r="35" spans="3:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C35" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="280" t="s">
+      <c r="D35" s="287" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="280"/>
-      <c r="F35" s="280"/>
+      <c r="E35" s="287"/>
+      <c r="F35" s="287"/>
       <c r="G35" s="59"/>
       <c r="H35" s="59"/>
       <c r="I35" s="59"/>
@@ -15617,15 +15915,15 @@
       <c r="X35" s="51"/>
       <c r="Y35" s="51"/>
     </row>
-    <row r="36" spans="3:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="280" t="s">
+      <c r="D36" s="287" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="280"/>
-      <c r="F36" s="280"/>
+      <c r="E36" s="287"/>
+      <c r="F36" s="287"/>
       <c r="G36" s="59"/>
       <c r="H36" s="59"/>
       <c r="I36" s="59"/>
@@ -15646,21 +15944,21 @@
       <c r="X36" s="51"/>
       <c r="Y36" s="51"/>
     </row>
-    <row r="37" spans="3:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C37" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="282" t="s">
+      <c r="D37" s="289" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="282"/>
-      <c r="F37" s="282"/>
+      <c r="E37" s="289"/>
+      <c r="F37" s="289"/>
       <c r="G37" s="59"/>
       <c r="H37" s="59"/>
       <c r="I37" s="59"/>
       <c r="Q37" s="6"/>
     </row>
-    <row r="38" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C38" s="63"/>
       <c r="D38" s="64"/>
       <c r="E38" s="64"/>
@@ -15669,59 +15967,59 @@
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
     </row>
-    <row r="39" spans="3:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="287" t="s">
+    <row r="39" spans="3:25" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="294" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="287"/>
-      <c r="E39" s="288"/>
-      <c r="F39" s="288"/>
-      <c r="G39" s="288"/>
-      <c r="H39" s="288"/>
-      <c r="I39" s="288"/>
-    </row>
-    <row r="40" spans="3:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="286" t="s">
+      <c r="D39" s="294"/>
+      <c r="E39" s="295"/>
+      <c r="F39" s="295"/>
+      <c r="G39" s="295"/>
+      <c r="H39" s="295"/>
+      <c r="I39" s="295"/>
+    </row>
+    <row r="40" spans="3:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="293" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="287"/>
-      <c r="E40" s="288"/>
-      <c r="F40" s="288"/>
-      <c r="G40" s="288"/>
-      <c r="H40" s="288"/>
-      <c r="I40" s="288"/>
-    </row>
-    <row r="41" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="D40" s="294"/>
+      <c r="E40" s="295"/>
+      <c r="F40" s="295"/>
+      <c r="G40" s="295"/>
+      <c r="H40" s="295"/>
+      <c r="I40" s="295"/>
+    </row>
+    <row r="41" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D48" s="12"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" s="12"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" s="12"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" s="12"/>
     </row>
   </sheetData>

--- a/collector/measurements.xlsx
+++ b/collector/measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\BI\CD\Proj13\130131_Recreational_waterway_monitoring\Water Management\2019-20\02_Website upload\website upload 20-04-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\yiota phone photos\New Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4750969-B0E5-4C5E-836A-0B0B8FD6AD6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A942EEAE-E1DE-4290-A5D3-1BDF8970EE87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-20 results" sheetId="13" r:id="rId1"/>
@@ -24,12 +24,20 @@
     <sheet name="2011-12 results" sheetId="4" r:id="rId9"/>
     <sheet name="Disclaimer" sheetId="3" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="108">
   <si>
     <t>Shorncliffe</t>
   </si>
@@ -428,6 +436,9 @@
       <t xml:space="preserve"> 40</t>
     </r>
   </si>
+  <si>
+    <t>&gt;10,000</t>
+  </si>
 </sst>
 </file>
 
@@ -776,7 +787,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1498,6 +1509,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1516,26 +1536,26 @@
     <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1570,9 +1590,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF6600"/>
       <color rgb="FFFFCC99"/>
       <color rgb="FFFFFF99"/>
+      <color rgb="FFFF6600"/>
       <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
@@ -2299,62 +2319,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:W43"/>
+  <dimension ref="B2:Z43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W19" sqref="W19"/>
+      <pane xSplit="6" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.1328125" style="7"/>
-    <col min="3" max="3" width="20.1328125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.265625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="61.265625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1328125" customWidth="1"/>
-    <col min="9" max="9" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="20.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="61.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:26" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:23" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:26" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="14.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:23" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="B6" s="290" t="s">
+    <row r="5" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B6" s="293" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="290" t="s">
+      <c r="C6" s="293" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="290" t="s">
+      <c r="D6" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="290" t="s">
+      <c r="E6" s="293" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="290" t="s">
+      <c r="F6" s="293" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="269" t="s">
@@ -2408,15 +2429,24 @@
       <c r="W6" s="286" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="291" t="s">
+      <c r="X6" s="287" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y6" s="288" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z6" s="289" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
+      <c r="C7" s="294"/>
+      <c r="D7" s="294"/>
+      <c r="E7" s="294"/>
+      <c r="F7" s="294"/>
       <c r="G7" s="108">
         <v>43656</v>
       </c>
@@ -2468,8 +2498,17 @@
       <c r="W7" s="108">
         <v>43936</v>
       </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="X7" s="108">
+        <v>43952</v>
+      </c>
+      <c r="Y7" s="108">
+        <v>43966</v>
+      </c>
+      <c r="Z7" s="108">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B8" s="11">
         <v>1</v>
       </c>
@@ -2536,8 +2575,17 @@
       <c r="W8" s="204" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="X8" s="168">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z8" s="241">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B9" s="11">
         <v>2</v>
       </c>
@@ -2604,8 +2652,17 @@
       <c r="W9" s="204" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="X9" s="168">
+        <v>13</v>
+      </c>
+      <c r="Y9" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z9" s="248">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B10" s="11">
         <v>3</v>
       </c>
@@ -2672,8 +2729,17 @@
       <c r="W10" s="241">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="X10" s="241">
+        <v>46</v>
+      </c>
+      <c r="Y10" s="241">
+        <v>50</v>
+      </c>
+      <c r="Z10" s="248" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -2740,8 +2806,17 @@
       <c r="W11" s="204" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="X11" s="168">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z11" s="248">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -2808,8 +2883,17 @@
       <c r="W12" s="204" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="X12" s="168">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z12" s="241">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -2876,8 +2960,17 @@
       <c r="W13" s="204" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="X13" s="168">
+        <v>32</v>
+      </c>
+      <c r="Y13" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z13" s="248">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -2944,8 +3037,17 @@
       <c r="W14" s="204" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="X14" s="168">
+        <v>14</v>
+      </c>
+      <c r="Y14" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z14" s="248">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B15" s="11">
         <v>8</v>
       </c>
@@ -3012,8 +3114,17 @@
       <c r="W15" s="204" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="X15" s="168">
+        <v>19</v>
+      </c>
+      <c r="Y15" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z15" s="250">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B16" s="11">
         <v>9</v>
       </c>
@@ -3080,8 +3191,17 @@
       <c r="W16" s="204" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="X16" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y16" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z16" s="250">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="28">
         <v>10</v>
       </c>
@@ -3148,8 +3268,17 @@
       <c r="W17" s="204" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="2:23" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X17" s="168">
+        <v>28</v>
+      </c>
+      <c r="Y17" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z17" s="168">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="39">
         <v>11</v>
       </c>
@@ -3216,165 +3345,174 @@
       <c r="W18" s="240">
         <v>620</v>
       </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="X18" s="245">
+        <v>460</v>
+      </c>
+      <c r="Y18" s="272">
+        <v>180</v>
+      </c>
+      <c r="Z18" s="240">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" s="80"/>
       <c r="C19" s="81"/>
       <c r="D19" s="82"/>
       <c r="E19" s="82"/>
       <c r="F19" s="83"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B20" s="80"/>
       <c r="C20" s="81"/>
       <c r="D20" s="82"/>
       <c r="E20" s="82"/>
       <c r="F20" s="83"/>
     </row>
-    <row r="21" spans="2:23" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C21" s="49" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="49"/>
     </row>
-    <row r="22" spans="2:23" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C23" s="53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C24" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C25" s="55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C26" s="56" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C27" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" spans="3:6" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="268"/>
       <c r="D33" s="268"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
     </row>
-    <row r="34" spans="3:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="292" t="s">
+      <c r="D34" s="295" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="292"/>
-      <c r="F34" s="292"/>
-    </row>
-    <row r="35" spans="3:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="295"/>
+      <c r="F34" s="295"/>
+    </row>
+    <row r="35" spans="3:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="287" t="s">
+      <c r="D35" s="290" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="287"/>
-      <c r="F35" s="287"/>
-    </row>
-    <row r="36" spans="3:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="290"/>
+      <c r="F35" s="290"/>
+    </row>
+    <row r="36" spans="3:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="288" t="s">
+      <c r="D36" s="291" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="288"/>
-      <c r="F36" s="288"/>
-    </row>
-    <row r="37" spans="3:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="291"/>
+      <c r="F36" s="291"/>
+    </row>
+    <row r="37" spans="3:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="288" t="s">
+      <c r="D37" s="291" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="288"/>
-      <c r="F37" s="288"/>
-    </row>
-    <row r="38" spans="3:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E37" s="291"/>
+      <c r="F37" s="291"/>
+    </row>
+    <row r="38" spans="3:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C38" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="289" t="s">
+      <c r="D38" s="292" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="289"/>
-      <c r="F38" s="289"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="E38" s="292"/>
+      <c r="F38" s="292"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="63"/>
       <c r="D39" s="64"/>
       <c r="E39" s="64"/>
       <c r="F39" s="64"/>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D43" s="12"/>
     </row>
   </sheetData>
@@ -3408,25 +3546,25 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="86.1328125" customWidth="1"/>
+    <col min="2" max="2" width="86.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="2:2" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
     </row>
   </sheetData>
@@ -3447,56 +3585,56 @@
       <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.1328125" style="7"/>
-    <col min="3" max="3" width="20.1328125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.265625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="61.265625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1328125" customWidth="1"/>
-    <col min="9" max="9" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="20.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="61.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:26" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:26" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:26" ht="14.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:26" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="B6" s="290" t="s">
+    <row r="5" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B6" s="293" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="290" t="s">
+      <c r="C6" s="293" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="290" t="s">
+      <c r="D6" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="290" t="s">
+      <c r="E6" s="293" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="290" t="s">
+      <c r="F6" s="293" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="239" t="s">
@@ -3560,14 +3698,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="291" t="s">
+    <row r="7" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
+      <c r="C7" s="294"/>
+      <c r="D7" s="294"/>
+      <c r="E7" s="294"/>
+      <c r="F7" s="294"/>
       <c r="G7" s="108">
         <v>43294</v>
       </c>
@@ -3629,7 +3767,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B8" s="11">
         <v>1</v>
       </c>
@@ -3706,7 +3844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B9" s="11">
         <v>2</v>
       </c>
@@ -3783,7 +3921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B10" s="11">
         <v>3</v>
       </c>
@@ -3860,7 +3998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -3937,7 +4075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -4014,7 +4152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -4091,7 +4229,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -4168,7 +4306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B15" s="11">
         <v>8</v>
       </c>
@@ -4245,7 +4383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B16" s="11">
         <v>9</v>
       </c>
@@ -4322,7 +4460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="28">
         <v>10</v>
       </c>
@@ -4399,7 +4537,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:26" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="39">
         <v>11</v>
       </c>
@@ -4476,7 +4614,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" s="80"/>
       <c r="C19" s="81"/>
       <c r="D19" s="82"/>
@@ -4484,7 +4622,7 @@
       <c r="F19" s="83"/>
       <c r="H19" s="167"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B20" s="80"/>
       <c r="C20" s="81"/>
       <c r="D20" s="82"/>
@@ -4494,7 +4632,7 @@
       <c r="J20" s="158"/>
       <c r="K20" s="159"/>
     </row>
-    <row r="21" spans="2:26" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C21" s="49" t="s">
         <v>43</v>
       </c>
@@ -4504,7 +4642,7 @@
       <c r="J21" s="158"/>
       <c r="K21" s="159"/>
     </row>
-    <row r="22" spans="2:26" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
         <v>106</v>
       </c>
@@ -4513,7 +4651,7 @@
       <c r="J22" s="158"/>
       <c r="K22" s="159"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C23" s="53" t="s">
         <v>45</v>
       </c>
@@ -4522,7 +4660,7 @@
       <c r="J23" s="158"/>
       <c r="K23" s="159"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C24" s="54" t="s">
         <v>46</v>
       </c>
@@ -4531,7 +4669,7 @@
       <c r="J24" s="158"/>
       <c r="K24" s="159"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C25" s="55" t="s">
         <v>47</v>
       </c>
@@ -4540,7 +4678,7 @@
       <c r="J25" s="158"/>
       <c r="K25" s="159"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C26" s="56" t="s">
         <v>48</v>
       </c>
@@ -4550,7 +4688,7 @@
       <c r="J26" s="158"/>
       <c r="K26" s="159"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C27" s="11" t="s">
         <v>49</v>
       </c>
@@ -4560,7 +4698,7 @@
       <c r="J27" s="158"/>
       <c r="K27" s="159"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="H28" s="254"/>
@@ -4568,7 +4706,7 @@
       <c r="J28" s="158"/>
       <c r="K28" s="159"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -4578,7 +4716,7 @@
       <c r="J29" s="158"/>
       <c r="K29" s="159"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -4588,7 +4726,7 @@
       <c r="J30" s="158"/>
       <c r="K30" s="159"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -4596,90 +4734,90 @@
       <c r="H31" s="254"/>
       <c r="I31" s="253"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" spans="3:6" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="238"/>
       <c r="D33" s="238"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
     </row>
-    <row r="34" spans="3:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="292" t="s">
+      <c r="D34" s="295" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="292"/>
-      <c r="F34" s="292"/>
-    </row>
-    <row r="35" spans="3:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="295"/>
+      <c r="F34" s="295"/>
+    </row>
+    <row r="35" spans="3:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="287" t="s">
+      <c r="D35" s="290" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="287"/>
-      <c r="F35" s="287"/>
-    </row>
-    <row r="36" spans="3:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="290"/>
+      <c r="F35" s="290"/>
+    </row>
+    <row r="36" spans="3:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="288" t="s">
+      <c r="D36" s="291" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="288"/>
-      <c r="F36" s="288"/>
-    </row>
-    <row r="37" spans="3:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="291"/>
+      <c r="F36" s="291"/>
+    </row>
+    <row r="37" spans="3:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="288" t="s">
+      <c r="D37" s="291" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="288"/>
-      <c r="F37" s="288"/>
-    </row>
-    <row r="38" spans="3:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E37" s="291"/>
+      <c r="F37" s="291"/>
+    </row>
+    <row r="38" spans="3:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C38" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="289" t="s">
+      <c r="D38" s="292" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="289"/>
-      <c r="F38" s="289"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="E38" s="292"/>
+      <c r="F38" s="292"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="63"/>
       <c r="D39" s="64"/>
       <c r="E39" s="64"/>
       <c r="F39" s="64"/>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D43" s="12"/>
     </row>
   </sheetData>
@@ -4713,51 +4851,51 @@
       <selection pane="topRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.1328125" style="7"/>
-    <col min="3" max="3" width="20.1328125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.265625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="61.265625" style="7" customWidth="1"/>
-    <col min="7" max="8" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.73046875" customWidth="1"/>
-    <col min="10" max="11" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="20.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="61.28515625" style="7" customWidth="1"/>
+    <col min="7" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="11" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="26" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="26" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:26" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:26" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:26" ht="14.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:26" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="B6" s="290" t="s">
+    <row r="5" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B6" s="293" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="290" t="s">
+      <c r="C6" s="293" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="290" t="s">
+      <c r="D6" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="290" t="s">
+      <c r="E6" s="293" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="290" t="s">
+      <c r="F6" s="293" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="202" t="s">
@@ -4821,14 +4959,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="291" t="s">
+    <row r="7" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
+      <c r="C7" s="294"/>
+      <c r="D7" s="294"/>
+      <c r="E7" s="294"/>
+      <c r="F7" s="294"/>
       <c r="G7" s="108">
         <v>42935</v>
       </c>
@@ -4890,7 +5028,7 @@
         <v>43263</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B8" s="11">
         <v>1</v>
       </c>
@@ -4967,7 +5105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B9" s="11">
         <v>2</v>
       </c>
@@ -5044,7 +5182,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B10" s="11">
         <v>3</v>
       </c>
@@ -5121,7 +5259,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -5198,7 +5336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -5275,7 +5413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -5352,7 +5490,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -5429,7 +5567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B15" s="11">
         <v>8</v>
       </c>
@@ -5506,7 +5644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B16" s="11">
         <v>9</v>
       </c>
@@ -5583,7 +5721,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="28">
         <v>10</v>
       </c>
@@ -5660,7 +5798,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:26" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="39">
         <v>11</v>
       </c>
@@ -5737,7 +5875,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" s="80"/>
       <c r="C19" s="81"/>
       <c r="D19" s="82"/>
@@ -5748,7 +5886,7 @@
       <c r="M19" s="174"/>
       <c r="Q19" s="186"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B20" s="80"/>
       <c r="C20" s="81"/>
       <c r="D20" s="82"/>
@@ -5758,7 +5896,7 @@
       <c r="L20" s="174"/>
       <c r="M20" s="174"/>
     </row>
-    <row r="21" spans="2:26" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C21" s="49" t="s">
         <v>43</v>
       </c>
@@ -5767,7 +5905,7 @@
       <c r="M21" s="213"/>
       <c r="N21" s="199"/>
     </row>
-    <row r="22" spans="2:26" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
         <v>106</v>
       </c>
@@ -5775,7 +5913,7 @@
       <c r="M22" s="214"/>
       <c r="N22" s="199"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C23" s="53" t="s">
         <v>45</v>
       </c>
@@ -5783,7 +5921,7 @@
       <c r="M23" s="214"/>
       <c r="N23" s="199"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C24" s="54" t="s">
         <v>46</v>
       </c>
@@ -5791,7 +5929,7 @@
       <c r="M24" s="214"/>
       <c r="N24" s="199"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C25" s="55" t="s">
         <v>47</v>
       </c>
@@ -5799,7 +5937,7 @@
       <c r="M25" s="213"/>
       <c r="N25" s="199"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C26" s="56" t="s">
         <v>48</v>
       </c>
@@ -5808,7 +5946,7 @@
       <c r="M26" s="214"/>
       <c r="N26" s="199"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C27" s="11" t="s">
         <v>49</v>
       </c>
@@ -5817,14 +5955,14 @@
       <c r="M27" s="159"/>
       <c r="N27" s="199"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="L28" s="212"/>
       <c r="M28" s="159"/>
       <c r="N28" s="199"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -5833,7 +5971,7 @@
       <c r="M29" s="159"/>
       <c r="N29" s="199"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -5842,7 +5980,7 @@
       <c r="M30" s="159"/>
       <c r="N30" s="199"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -5851,7 +5989,7 @@
       <c r="M31" s="159"/>
       <c r="N31" s="199"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -5859,7 +5997,7 @@
       <c r="L32" s="212"/>
       <c r="M32" s="159"/>
     </row>
-    <row r="33" spans="3:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="201"/>
       <c r="D33" s="201"/>
       <c r="E33" s="59"/>
@@ -5870,95 +6008,95 @@
       <c r="S33" s="195"/>
       <c r="U33" s="159"/>
     </row>
-    <row r="34" spans="3:21" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="292" t="s">
+      <c r="D34" s="295" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="292"/>
-      <c r="F34" s="292"/>
+      <c r="E34" s="295"/>
+      <c r="F34" s="295"/>
       <c r="L34" s="159"/>
       <c r="M34" s="159"/>
       <c r="N34" s="159"/>
       <c r="U34" s="159"/>
     </row>
-    <row r="35" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="287" t="s">
+      <c r="D35" s="290" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="287"/>
-      <c r="F35" s="287"/>
+      <c r="E35" s="290"/>
+      <c r="F35" s="290"/>
       <c r="L35" s="159"/>
       <c r="M35" s="159"/>
       <c r="N35" s="159"/>
       <c r="U35" s="159"/>
     </row>
-    <row r="36" spans="3:21" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:21" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="288" t="s">
+      <c r="D36" s="291" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="288"/>
-      <c r="F36" s="288"/>
+      <c r="E36" s="291"/>
+      <c r="F36" s="291"/>
       <c r="L36" s="159"/>
       <c r="M36" s="159"/>
       <c r="N36" s="159"/>
       <c r="U36" s="159"/>
     </row>
-    <row r="37" spans="3:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="288" t="s">
+      <c r="D37" s="291" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="288"/>
-      <c r="F37" s="288"/>
+      <c r="E37" s="291"/>
+      <c r="F37" s="291"/>
       <c r="L37" s="159"/>
       <c r="M37" s="159"/>
       <c r="N37" s="159"/>
       <c r="U37" s="159"/>
     </row>
-    <row r="38" spans="3:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C38" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="289" t="s">
+      <c r="D38" s="292" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="289"/>
-      <c r="F38" s="289"/>
+      <c r="E38" s="292"/>
+      <c r="F38" s="292"/>
       <c r="L38" s="159"/>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C39" s="63"/>
       <c r="D39" s="64"/>
       <c r="E39" s="64"/>
       <c r="F39" s="64"/>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
       <c r="D43" s="12"/>
     </row>
   </sheetData>
@@ -5992,53 +6130,53 @@
       <selection pane="topRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.1328125" style="7"/>
-    <col min="3" max="3" width="20.1328125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.265625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="61.265625" style="7" customWidth="1"/>
-    <col min="7" max="11" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="20.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="61.28515625" style="7" customWidth="1"/>
+    <col min="7" max="11" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:25" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:25" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="14.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:25" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B6" s="290" t="s">
+    <row r="5" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B6" s="293" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="290" t="s">
+      <c r="C6" s="293" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="290" t="s">
+      <c r="D6" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="290" t="s">
+      <c r="E6" s="293" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="290" t="s">
+      <c r="F6" s="293" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="164" t="s">
@@ -6099,14 +6237,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="291" t="s">
+    <row r="7" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
+      <c r="C7" s="294"/>
+      <c r="D7" s="294"/>
+      <c r="E7" s="294"/>
+      <c r="F7" s="294"/>
       <c r="G7" s="108">
         <v>42565</v>
       </c>
@@ -6165,7 +6303,7 @@
         <v>42906</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B8" s="11">
         <v>1</v>
       </c>
@@ -6239,7 +6377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B9" s="11">
         <v>2</v>
       </c>
@@ -6313,7 +6451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B10" s="11">
         <v>3</v>
       </c>
@@ -6387,7 +6525,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -6461,7 +6599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -6535,7 +6673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -6609,7 +6747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -6683,7 +6821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B15" s="11">
         <v>8</v>
       </c>
@@ -6757,7 +6895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B16" s="11">
         <v>9</v>
       </c>
@@ -6831,7 +6969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" s="28">
         <v>10</v>
       </c>
@@ -6905,7 +7043,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:25" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="39">
         <v>11</v>
       </c>
@@ -6979,7 +7117,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B19" s="80"/>
       <c r="C19" s="81"/>
       <c r="D19" s="82"/>
@@ -6990,7 +7128,7 @@
       <c r="M19" s="174"/>
       <c r="Q19" s="186"/>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B20" s="80"/>
       <c r="C20" s="81"/>
       <c r="D20" s="82"/>
@@ -7000,7 +7138,7 @@
       <c r="L20" s="174"/>
       <c r="M20" s="174"/>
     </row>
-    <row r="21" spans="2:25" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C21" s="49" t="s">
         <v>43</v>
       </c>
@@ -7009,7 +7147,7 @@
       <c r="M21" s="174"/>
       <c r="V21" s="199"/>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
         <v>44</v>
       </c>
@@ -7017,7 +7155,7 @@
       <c r="M22" s="174"/>
       <c r="V22" s="199"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C23" s="53" t="s">
         <v>45</v>
       </c>
@@ -7026,7 +7164,7 @@
       <c r="S23" s="194"/>
       <c r="V23" s="199"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C24" s="54" t="s">
         <v>46</v>
       </c>
@@ -7035,7 +7173,7 @@
       <c r="S24" s="194"/>
       <c r="V24" s="199"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C25" s="55" t="s">
         <v>47</v>
       </c>
@@ -7044,7 +7182,7 @@
       <c r="S25" s="200"/>
       <c r="V25" s="199"/>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C26" s="56" t="s">
         <v>48</v>
       </c>
@@ -7054,7 +7192,7 @@
       <c r="S26" s="200"/>
       <c r="V26" s="199"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C27" s="11" t="s">
         <v>49</v>
       </c>
@@ -7065,7 +7203,7 @@
       <c r="U27" s="159"/>
       <c r="V27" s="199"/>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="L28" s="159"/>
@@ -7074,7 +7212,7 @@
       <c r="U28" s="159"/>
       <c r="V28" s="199"/>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -7085,7 +7223,7 @@
       <c r="U29" s="159"/>
       <c r="V29" s="199"/>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -7096,7 +7234,7 @@
       <c r="U30" s="159"/>
       <c r="V30" s="199"/>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -7107,7 +7245,7 @@
       <c r="U31" s="159"/>
       <c r="V31" s="199"/>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -7117,7 +7255,7 @@
       <c r="S32" s="194"/>
       <c r="U32" s="159"/>
     </row>
-    <row r="33" spans="3:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="165"/>
       <c r="D33" s="165"/>
       <c r="E33" s="59"/>
@@ -7127,91 +7265,91 @@
       <c r="S33" s="195"/>
       <c r="U33" s="159"/>
     </row>
-    <row r="34" spans="3:21" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="292" t="s">
+      <c r="D34" s="295" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="292"/>
-      <c r="F34" s="292"/>
+      <c r="E34" s="295"/>
+      <c r="F34" s="295"/>
       <c r="L34" s="159"/>
       <c r="N34" s="159"/>
       <c r="U34" s="159"/>
     </row>
-    <row r="35" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="287" t="s">
+      <c r="D35" s="290" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="287"/>
-      <c r="F35" s="287"/>
+      <c r="E35" s="290"/>
+      <c r="F35" s="290"/>
       <c r="L35" s="159"/>
       <c r="N35" s="159"/>
       <c r="U35" s="159"/>
     </row>
-    <row r="36" spans="3:21" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:21" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="288" t="s">
+      <c r="D36" s="291" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="288"/>
-      <c r="F36" s="288"/>
+      <c r="E36" s="291"/>
+      <c r="F36" s="291"/>
       <c r="L36" s="159"/>
       <c r="N36" s="159"/>
       <c r="U36" s="159"/>
     </row>
-    <row r="37" spans="3:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="288" t="s">
+      <c r="D37" s="291" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="288"/>
-      <c r="F37" s="288"/>
+      <c r="E37" s="291"/>
+      <c r="F37" s="291"/>
       <c r="L37" s="159"/>
       <c r="N37" s="159"/>
       <c r="U37" s="159"/>
     </row>
-    <row r="38" spans="3:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C38" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="289" t="s">
+      <c r="D38" s="292" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="289"/>
-      <c r="F38" s="289"/>
+      <c r="E38" s="292"/>
+      <c r="F38" s="292"/>
       <c r="L38" s="159"/>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C39" s="63"/>
       <c r="D39" s="64"/>
       <c r="E39" s="64"/>
       <c r="F39" s="64"/>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
       <c r="D43" s="12"/>
     </row>
   </sheetData>
@@ -7246,63 +7384,63 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.1328125" style="7"/>
-    <col min="3" max="3" width="20.1328125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.265625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="61.265625" style="7" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="20.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="61.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="17" style="7" customWidth="1"/>
-    <col min="8" max="9" width="16.86328125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.86328125" style="7" customWidth="1"/>
+    <col min="8" max="9" width="16.85546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="7" customWidth="1"/>
     <col min="11" max="11" width="18" style="7" customWidth="1"/>
-    <col min="12" max="12" width="17.86328125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="7" customWidth="1"/>
     <col min="13" max="13" width="18" style="7" customWidth="1"/>
-    <col min="14" max="14" width="17.73046875" style="11" customWidth="1"/>
-    <col min="15" max="15" width="17.73046875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="18.265625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="16.73046875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="11" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" style="7" customWidth="1"/>
     <col min="18" max="18" width="14" style="7" customWidth="1"/>
-    <col min="19" max="19" width="13.86328125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="15.1328125" style="7" customWidth="1"/>
-    <col min="21" max="21" width="13.73046875" style="7" customWidth="1"/>
-    <col min="22" max="22" width="15.1328125" style="7" customWidth="1"/>
-    <col min="23" max="23" width="12.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.1328125" style="7"/>
+    <col min="19" max="19" width="13.85546875" style="7" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="7" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" style="7" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="7" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:44" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:44" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:44" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:44" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:44" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="B6" s="290" t="s">
+    <row r="6" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B6" s="293" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="290" t="s">
+      <c r="C6" s="293" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="290" t="s">
+      <c r="D6" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="290" t="s">
+      <c r="E6" s="293" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="290" t="s">
+      <c r="F6" s="293" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -7364,14 +7502,14 @@
       </c>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="291" t="s">
+    <row r="7" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
+      <c r="C7" s="294"/>
+      <c r="D7" s="294"/>
+      <c r="E7" s="294"/>
+      <c r="F7" s="294"/>
       <c r="G7" s="108">
         <v>42198</v>
       </c>
@@ -7430,7 +7568,7 @@
         <v>42537</v>
       </c>
     </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B8" s="11">
         <v>1</v>
       </c>
@@ -7506,7 +7644,7 @@
       <c r="Z8" s="6"/>
       <c r="AR8" s="16"/>
     </row>
-    <row r="9" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B9" s="11">
         <v>2</v>
       </c>
@@ -7581,7 +7719,7 @@
       </c>
       <c r="AR9" s="16"/>
     </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B10" s="11">
         <v>3</v>
       </c>
@@ -7657,7 +7795,7 @@
       <c r="Z10" s="6"/>
       <c r="AR10" s="16"/>
     </row>
-    <row r="11" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -7732,7 +7870,7 @@
       </c>
       <c r="AR11" s="16"/>
     </row>
-    <row r="12" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -7808,7 +7946,7 @@
       <c r="Z12" s="6"/>
       <c r="AR12" s="16"/>
     </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -7883,7 +8021,7 @@
       </c>
       <c r="AR13" s="16"/>
     </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -7959,7 +8097,7 @@
       <c r="Z14" s="6"/>
       <c r="AR14" s="16"/>
     </row>
-    <row r="15" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B15" s="11">
         <v>8</v>
       </c>
@@ -8034,7 +8172,7 @@
       </c>
       <c r="AR15" s="16"/>
     </row>
-    <row r="16" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B16" s="11">
         <v>9</v>
       </c>
@@ -8110,7 +8248,7 @@
       <c r="Z16" s="6"/>
       <c r="AR16" s="16"/>
     </row>
-    <row r="17" spans="2:44" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:44" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="28">
         <v>10</v>
       </c>
@@ -8190,7 +8328,7 @@
       <c r="AD17" s="7"/>
       <c r="AR17" s="38"/>
     </row>
-    <row r="18" spans="2:44" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="39">
         <v>11</v>
       </c>
@@ -8266,49 +8404,49 @@
       <c r="Z18" s="6"/>
       <c r="AR18" s="16"/>
     </row>
-    <row r="19" spans="2:44" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:44" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="80"/>
       <c r="C19" s="81"/>
       <c r="D19" s="82"/>
       <c r="E19" s="82"/>
       <c r="N19" s="80"/>
     </row>
-    <row r="20" spans="2:44" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:44" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="80"/>
       <c r="C20" s="81"/>
       <c r="D20" s="82"/>
       <c r="E20" s="82"/>
       <c r="N20" s="80"/>
     </row>
-    <row r="21" spans="2:44" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C21" s="49" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="49"/>
     </row>
-    <row r="22" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C23" s="53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C24" s="54" t="s">
         <v>46</v>
       </c>
       <c r="N24" s="162"/>
     </row>
-    <row r="25" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C25" s="55" t="s">
         <v>47</v>
       </c>
       <c r="N25" s="162"/>
     </row>
-    <row r="26" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C26" s="56" t="s">
         <v>48</v>
       </c>
@@ -8316,7 +8454,7 @@
       <c r="R26" s="161"/>
       <c r="V26" s="163"/>
     </row>
-    <row r="27" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C27" s="11" t="s">
         <v>49</v>
       </c>
@@ -8324,22 +8462,22 @@
       <c r="R27" s="161"/>
       <c r="V27" s="163"/>
     </row>
-    <row r="28" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="R28" s="161"/>
       <c r="V28" s="163"/>
     </row>
-    <row r="29" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="294" t="s">
+    <row r="29" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="296" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="294"/>
-      <c r="E29" s="294"/>
-      <c r="F29" s="294"/>
-      <c r="G29" s="299"/>
-      <c r="H29" s="299"/>
-      <c r="I29" s="299"/>
+      <c r="D29" s="296"/>
+      <c r="E29" s="296"/>
+      <c r="F29" s="296"/>
+      <c r="G29" s="300"/>
+      <c r="H29" s="300"/>
+      <c r="I29" s="300"/>
       <c r="J29" s="1"/>
       <c r="K29" s="158"/>
       <c r="L29" s="159"/>
@@ -8357,16 +8495,16 @@
       <c r="X29" s="51"/>
       <c r="Y29" s="51"/>
     </row>
-    <row r="30" spans="2:44" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="294" t="s">
+    <row r="30" spans="2:44" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="296" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="296"/>
-      <c r="E30" s="297"/>
-      <c r="F30" s="297"/>
-      <c r="G30" s="298"/>
-      <c r="H30" s="298"/>
-      <c r="I30" s="298"/>
+      <c r="D30" s="297"/>
+      <c r="E30" s="298"/>
+      <c r="F30" s="298"/>
+      <c r="G30" s="299"/>
+      <c r="H30" s="299"/>
+      <c r="I30" s="299"/>
       <c r="J30" s="1"/>
       <c r="K30" s="158"/>
       <c r="L30" s="159"/>
@@ -8384,16 +8522,16 @@
       <c r="X30" s="51"/>
       <c r="Y30" s="51"/>
     </row>
-    <row r="31" spans="2:44" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="294" t="s">
+    <row r="31" spans="2:44" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="296" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="296"/>
-      <c r="E31" s="297"/>
-      <c r="F31" s="297"/>
-      <c r="G31" s="298"/>
-      <c r="H31" s="298"/>
-      <c r="I31" s="298"/>
+      <c r="D31" s="297"/>
+      <c r="E31" s="298"/>
+      <c r="F31" s="298"/>
+      <c r="G31" s="299"/>
+      <c r="H31" s="299"/>
+      <c r="I31" s="299"/>
       <c r="J31" s="1"/>
       <c r="K31" s="158"/>
       <c r="L31" s="159"/>
@@ -8411,16 +8549,16 @@
       <c r="X31" s="51"/>
       <c r="Y31" s="51"/>
     </row>
-    <row r="32" spans="2:44" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="294" t="s">
+    <row r="32" spans="2:44" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="296" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="294"/>
-      <c r="E32" s="297"/>
-      <c r="F32" s="297"/>
-      <c r="G32" s="298"/>
-      <c r="H32" s="298"/>
-      <c r="I32" s="298"/>
+      <c r="D32" s="296"/>
+      <c r="E32" s="298"/>
+      <c r="F32" s="298"/>
+      <c r="G32" s="299"/>
+      <c r="H32" s="299"/>
+      <c r="I32" s="299"/>
       <c r="J32" s="1"/>
       <c r="K32" s="158"/>
       <c r="L32" s="159"/>
@@ -8438,7 +8576,7 @@
       <c r="X32" s="51"/>
       <c r="Y32" s="51"/>
     </row>
-    <row r="33" spans="3:25" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="58"/>
       <c r="D33" s="58"/>
       <c r="E33" s="59"/>
@@ -8463,15 +8601,15 @@
       <c r="X33" s="51"/>
       <c r="Y33" s="51"/>
     </row>
-    <row r="34" spans="3:25" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="292" t="s">
+      <c r="D34" s="295" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="292"/>
-      <c r="F34" s="292"/>
+      <c r="E34" s="295"/>
+      <c r="F34" s="295"/>
       <c r="G34" s="59"/>
       <c r="H34" s="59"/>
       <c r="I34" s="59"/>
@@ -8492,15 +8630,15 @@
       <c r="X34" s="51"/>
       <c r="Y34" s="51"/>
     </row>
-    <row r="35" spans="3:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="287" t="s">
+      <c r="D35" s="290" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="287"/>
-      <c r="F35" s="287"/>
+      <c r="E35" s="290"/>
+      <c r="F35" s="290"/>
       <c r="G35" s="59"/>
       <c r="H35" s="59"/>
       <c r="I35" s="59"/>
@@ -8521,15 +8659,15 @@
       <c r="X35" s="51"/>
       <c r="Y35" s="51"/>
     </row>
-    <row r="36" spans="3:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="287" t="s">
+      <c r="D36" s="290" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="287"/>
-      <c r="F36" s="287"/>
+      <c r="E36" s="290"/>
+      <c r="F36" s="290"/>
       <c r="G36" s="59"/>
       <c r="H36" s="59"/>
       <c r="I36" s="59"/>
@@ -8550,15 +8688,15 @@
       <c r="X36" s="51"/>
       <c r="Y36" s="51"/>
     </row>
-    <row r="37" spans="3:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="287" t="s">
+      <c r="D37" s="290" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="287"/>
-      <c r="F37" s="287"/>
+      <c r="E37" s="290"/>
+      <c r="F37" s="290"/>
       <c r="G37" s="59"/>
       <c r="H37" s="59"/>
       <c r="I37" s="59"/>
@@ -8579,15 +8717,15 @@
       <c r="X37" s="51"/>
       <c r="Y37" s="51"/>
     </row>
-    <row r="38" spans="3:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C38" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="289" t="s">
+      <c r="D38" s="292" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="289"/>
-      <c r="F38" s="289"/>
+      <c r="E38" s="292"/>
+      <c r="F38" s="292"/>
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
@@ -8599,7 +8737,7 @@
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
     </row>
-    <row r="39" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C39" s="63"/>
       <c r="D39" s="64"/>
       <c r="E39" s="64"/>
@@ -8614,31 +8752,31 @@
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
     </row>
-    <row r="40" spans="3:25" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="294" t="s">
+    <row r="40" spans="3:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="294"/>
-      <c r="E40" s="295"/>
-      <c r="F40" s="295"/>
-      <c r="G40" s="295"/>
-      <c r="H40" s="295"/>
-      <c r="I40" s="295"/>
+      <c r="D40" s="296"/>
+      <c r="E40" s="302"/>
+      <c r="F40" s="302"/>
+      <c r="G40" s="302"/>
+      <c r="H40" s="302"/>
+      <c r="I40" s="302"/>
       <c r="K40" s="157"/>
       <c r="N40" s="7"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
     </row>
-    <row r="41" spans="3:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="293" t="s">
+    <row r="41" spans="3:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="301" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="294"/>
-      <c r="E41" s="295"/>
-      <c r="F41" s="295"/>
-      <c r="G41" s="295"/>
-      <c r="H41" s="295"/>
-      <c r="I41" s="295"/>
+      <c r="D41" s="296"/>
+      <c r="E41" s="302"/>
+      <c r="F41" s="302"/>
+      <c r="G41" s="302"/>
+      <c r="H41" s="302"/>
+      <c r="I41" s="302"/>
       <c r="N41" s="7"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
@@ -8646,6 +8784,13 @@
   </sheetData>
   <sheetProtection password="91FB" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C40:I40"/>
     <mergeCell ref="C30:I30"/>
     <mergeCell ref="C31:I31"/>
     <mergeCell ref="C32:I32"/>
@@ -8655,13 +8800,6 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C40:I40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8679,64 +8817,64 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.1328125" style="7"/>
-    <col min="3" max="3" width="20.1328125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.265625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="61.265625" style="7" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="20.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="61.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="17" style="7" customWidth="1"/>
-    <col min="8" max="9" width="16.86328125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.86328125" style="7" customWidth="1"/>
+    <col min="8" max="9" width="16.85546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="7" customWidth="1"/>
     <col min="11" max="11" width="18" style="7" customWidth="1"/>
-    <col min="12" max="12" width="17.86328125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="7" customWidth="1"/>
     <col min="13" max="13" width="18" style="7" customWidth="1"/>
-    <col min="14" max="14" width="17.73046875" style="11" customWidth="1"/>
-    <col min="15" max="15" width="17.73046875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="18.265625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="16.73046875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="11" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" style="7" customWidth="1"/>
     <col min="18" max="18" width="14" style="7" customWidth="1"/>
-    <col min="19" max="19" width="13.86328125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="15.1328125" style="7" customWidth="1"/>
-    <col min="21" max="21" width="13.73046875" style="7" customWidth="1"/>
-    <col min="22" max="22" width="15.1328125" style="7" customWidth="1"/>
-    <col min="23" max="23" width="12.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.1328125" style="7"/>
+    <col min="19" max="19" width="13.85546875" style="7" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="7" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" style="7" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="7" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:44" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:44" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:44" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:44" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:44" ht="14.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:44" ht="14.25" x14ac:dyDescent="0.2">
       <c r="N4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:44" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:44" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="B6" s="290" t="s">
+    <row r="5" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B6" s="293" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="290" t="s">
+      <c r="C6" s="293" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="290" t="s">
+      <c r="D6" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="290" t="s">
+      <c r="E6" s="293" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="290" t="s">
+      <c r="F6" s="293" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -8798,14 +8936,14 @@
       </c>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="291" t="s">
+    <row r="7" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
+      <c r="C7" s="294"/>
+      <c r="D7" s="294"/>
+      <c r="E7" s="294"/>
+      <c r="F7" s="294"/>
       <c r="G7" s="108">
         <v>42166</v>
       </c>
@@ -8864,7 +9002,7 @@
         <v>41842</v>
       </c>
     </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B8" s="11">
         <v>1</v>
       </c>
@@ -8940,7 +9078,7 @@
       <c r="Z8" s="6"/>
       <c r="AR8" s="16"/>
     </row>
-    <row r="9" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B9" s="11">
         <v>2</v>
       </c>
@@ -9015,7 +9153,7 @@
       </c>
       <c r="AR9" s="16"/>
     </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B10" s="11">
         <v>3</v>
       </c>
@@ -9091,7 +9229,7 @@
       <c r="Z10" s="6"/>
       <c r="AR10" s="16"/>
     </row>
-    <row r="11" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -9166,7 +9304,7 @@
       </c>
       <c r="AR11" s="16"/>
     </row>
-    <row r="12" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -9242,7 +9380,7 @@
       <c r="Z12" s="6"/>
       <c r="AR12" s="16"/>
     </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -9317,7 +9455,7 @@
       </c>
       <c r="AR13" s="16"/>
     </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -9393,7 +9531,7 @@
       <c r="Z14" s="6"/>
       <c r="AR14" s="16"/>
     </row>
-    <row r="15" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B15" s="11">
         <v>8</v>
       </c>
@@ -9468,7 +9606,7 @@
       </c>
       <c r="AR15" s="16"/>
     </row>
-    <row r="16" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B16" s="11">
         <v>9</v>
       </c>
@@ -9544,7 +9682,7 @@
       <c r="Z16" s="6"/>
       <c r="AR16" s="16"/>
     </row>
-    <row r="17" spans="2:44" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:44" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="28">
         <v>10</v>
       </c>
@@ -9624,7 +9762,7 @@
       <c r="AD17" s="7"/>
       <c r="AR17" s="38"/>
     </row>
-    <row r="18" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B18" s="125">
         <v>11</v>
       </c>
@@ -9700,72 +9838,72 @@
       <c r="Z18" s="6"/>
       <c r="AR18" s="16"/>
     </row>
-    <row r="19" spans="2:44" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:44" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="80"/>
       <c r="C19" s="81"/>
       <c r="D19" s="82"/>
       <c r="E19" s="82"/>
       <c r="N19" s="80"/>
     </row>
-    <row r="20" spans="2:44" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:44" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="80"/>
       <c r="C20" s="81"/>
       <c r="D20" s="82"/>
       <c r="E20" s="82"/>
       <c r="N20" s="80"/>
     </row>
-    <row r="21" spans="2:44" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C21" s="49" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="49"/>
     </row>
-    <row r="22" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C23" s="53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C24" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C25" s="55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C26" s="56" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C27" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="294" t="s">
+    <row r="29" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="296" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="294"/>
-      <c r="E29" s="294"/>
-      <c r="F29" s="294"/>
-      <c r="G29" s="299"/>
-      <c r="H29" s="299"/>
-      <c r="I29" s="299"/>
+      <c r="D29" s="296"/>
+      <c r="E29" s="296"/>
+      <c r="F29" s="296"/>
+      <c r="G29" s="300"/>
+      <c r="H29" s="300"/>
+      <c r="I29" s="300"/>
       <c r="J29" s="1"/>
       <c r="K29" s="2"/>
       <c r="L29" s="16"/>
@@ -9783,16 +9921,16 @@
       <c r="X29" s="51"/>
       <c r="Y29" s="51"/>
     </row>
-    <row r="30" spans="2:44" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="294" t="s">
+    <row r="30" spans="2:44" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="296" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="296"/>
-      <c r="E30" s="297"/>
-      <c r="F30" s="297"/>
-      <c r="G30" s="298"/>
-      <c r="H30" s="298"/>
-      <c r="I30" s="298"/>
+      <c r="D30" s="297"/>
+      <c r="E30" s="298"/>
+      <c r="F30" s="298"/>
+      <c r="G30" s="299"/>
+      <c r="H30" s="299"/>
+      <c r="I30" s="299"/>
       <c r="J30" s="1"/>
       <c r="K30" s="2"/>
       <c r="L30" s="16"/>
@@ -9810,16 +9948,16 @@
       <c r="X30" s="51"/>
       <c r="Y30" s="51"/>
     </row>
-    <row r="31" spans="2:44" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="294" t="s">
+    <row r="31" spans="2:44" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="296" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="296"/>
-      <c r="E31" s="297"/>
-      <c r="F31" s="297"/>
-      <c r="G31" s="298"/>
-      <c r="H31" s="298"/>
-      <c r="I31" s="298"/>
+      <c r="D31" s="297"/>
+      <c r="E31" s="298"/>
+      <c r="F31" s="298"/>
+      <c r="G31" s="299"/>
+      <c r="H31" s="299"/>
+      <c r="I31" s="299"/>
       <c r="J31" s="1"/>
       <c r="K31" s="2"/>
       <c r="L31" s="16"/>
@@ -9837,16 +9975,16 @@
       <c r="X31" s="51"/>
       <c r="Y31" s="51"/>
     </row>
-    <row r="32" spans="2:44" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="294" t="s">
+    <row r="32" spans="2:44" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="296" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="294"/>
-      <c r="E32" s="297"/>
-      <c r="F32" s="297"/>
-      <c r="G32" s="298"/>
-      <c r="H32" s="298"/>
-      <c r="I32" s="298"/>
+      <c r="D32" s="296"/>
+      <c r="E32" s="298"/>
+      <c r="F32" s="298"/>
+      <c r="G32" s="299"/>
+      <c r="H32" s="299"/>
+      <c r="I32" s="299"/>
       <c r="J32" s="1"/>
       <c r="K32" s="2"/>
       <c r="L32" s="16"/>
@@ -9864,7 +10002,7 @@
       <c r="X32" s="51"/>
       <c r="Y32" s="51"/>
     </row>
-    <row r="33" spans="3:25" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="58"/>
       <c r="D33" s="58"/>
       <c r="E33" s="59"/>
@@ -9889,15 +10027,15 @@
       <c r="X33" s="51"/>
       <c r="Y33" s="51"/>
     </row>
-    <row r="34" spans="3:25" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="292" t="s">
+      <c r="D34" s="295" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="292"/>
-      <c r="F34" s="292"/>
+      <c r="E34" s="295"/>
+      <c r="F34" s="295"/>
       <c r="G34" s="59"/>
       <c r="H34" s="59"/>
       <c r="I34" s="59"/>
@@ -9918,15 +10056,15 @@
       <c r="X34" s="51"/>
       <c r="Y34" s="51"/>
     </row>
-    <row r="35" spans="3:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="287" t="s">
+      <c r="D35" s="290" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="287"/>
-      <c r="F35" s="287"/>
+      <c r="E35" s="290"/>
+      <c r="F35" s="290"/>
       <c r="G35" s="59"/>
       <c r="H35" s="59"/>
       <c r="I35" s="59"/>
@@ -9947,15 +10085,15 @@
       <c r="X35" s="51"/>
       <c r="Y35" s="51"/>
     </row>
-    <row r="36" spans="3:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="287" t="s">
+      <c r="D36" s="290" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="287"/>
-      <c r="F36" s="287"/>
+      <c r="E36" s="290"/>
+      <c r="F36" s="290"/>
       <c r="G36" s="59"/>
       <c r="H36" s="59"/>
       <c r="I36" s="59"/>
@@ -9976,15 +10114,15 @@
       <c r="X36" s="51"/>
       <c r="Y36" s="51"/>
     </row>
-    <row r="37" spans="3:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="287" t="s">
+      <c r="D37" s="290" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="287"/>
-      <c r="F37" s="287"/>
+      <c r="E37" s="290"/>
+      <c r="F37" s="290"/>
       <c r="G37" s="59"/>
       <c r="H37" s="59"/>
       <c r="I37" s="59"/>
@@ -10005,15 +10143,15 @@
       <c r="X37" s="51"/>
       <c r="Y37" s="51"/>
     </row>
-    <row r="38" spans="3:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C38" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="289" t="s">
+      <c r="D38" s="292" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="289"/>
-      <c r="F38" s="289"/>
+      <c r="E38" s="292"/>
+      <c r="F38" s="292"/>
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
@@ -10022,7 +10160,7 @@
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
     </row>
-    <row r="39" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C39" s="63"/>
       <c r="D39" s="64"/>
       <c r="E39" s="64"/>
@@ -10034,43 +10172,50 @@
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
     </row>
-    <row r="40" spans="3:25" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="294" t="s">
+    <row r="40" spans="3:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="294"/>
-      <c r="E40" s="295"/>
-      <c r="F40" s="295"/>
-      <c r="G40" s="295"/>
-      <c r="H40" s="295"/>
-      <c r="I40" s="295"/>
+      <c r="D40" s="296"/>
+      <c r="E40" s="302"/>
+      <c r="F40" s="302"/>
+      <c r="G40" s="302"/>
+      <c r="H40" s="302"/>
+      <c r="I40" s="302"/>
       <c r="N40" s="7"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
     </row>
-    <row r="41" spans="3:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="293" t="s">
+    <row r="41" spans="3:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="301" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="294"/>
-      <c r="E41" s="295"/>
-      <c r="F41" s="295"/>
-      <c r="G41" s="295"/>
-      <c r="H41" s="295"/>
-      <c r="I41" s="295"/>
+      <c r="D41" s="296"/>
+      <c r="E41" s="302"/>
+      <c r="F41" s="302"/>
+      <c r="G41" s="302"/>
+      <c r="H41" s="302"/>
+      <c r="I41" s="302"/>
       <c r="N41" s="7"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
     </row>
-    <row r="42" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D43" s="12"/>
     </row>
   </sheetData>
   <sheetProtection password="91FB" sheet="1"/>
   <mergeCells count="16">
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C40:I40"/>
     <mergeCell ref="C30:I30"/>
     <mergeCell ref="C31:I31"/>
     <mergeCell ref="C32:I32"/>
@@ -10080,13 +10225,6 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C40:I40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10106,64 +10244,64 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.1328125" style="7"/>
+    <col min="1" max="2" width="9.140625" style="7"/>
     <col min="3" max="3" width="24" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.265625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="58.1328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="58.140625" style="7" customWidth="1"/>
     <col min="7" max="7" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="11.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="16.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.1328125" style="7"/>
+    <col min="8" max="8" width="12.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:25" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:25" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="14.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:25" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="B6" s="290" t="s">
+    <row r="5" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B6" s="293" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="290" t="s">
+      <c r="C6" s="293" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="290" t="s">
+      <c r="D6" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="290" t="s">
+      <c r="E6" s="293" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="290" t="s">
+      <c r="F6" s="293" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -10222,14 +10360,14 @@
       </c>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="291" t="s">
+    <row r="7" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
+      <c r="C7" s="294"/>
+      <c r="D7" s="294"/>
+      <c r="E7" s="294"/>
+      <c r="F7" s="294"/>
       <c r="G7" s="108">
         <v>41800</v>
       </c>
@@ -10286,7 +10424,7 @@
       </c>
       <c r="Y7" s="7"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B8" s="11">
         <v>1</v>
       </c>
@@ -10358,7 +10496,7 @@
       </c>
       <c r="Y8" s="16"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B9" s="11">
         <v>2</v>
       </c>
@@ -10430,7 +10568,7 @@
       </c>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B10" s="11">
         <v>3</v>
       </c>
@@ -10502,7 +10640,7 @@
       </c>
       <c r="Y10" s="16"/>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -10574,7 +10712,7 @@
       </c>
       <c r="Y11" s="16"/>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -10646,7 +10784,7 @@
       </c>
       <c r="Y12" s="16"/>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -10718,7 +10856,7 @@
       </c>
       <c r="Y13" s="16"/>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -10790,7 +10928,7 @@
       </c>
       <c r="Y14" s="16"/>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B15" s="11">
         <v>8</v>
       </c>
@@ -10862,7 +11000,7 @@
       </c>
       <c r="Y15" s="16"/>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B16" s="11">
         <v>9</v>
       </c>
@@ -10934,7 +11072,7 @@
       </c>
       <c r="Y16" s="16"/>
     </row>
-    <row r="17" spans="2:25" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:25" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="28">
         <v>10</v>
       </c>
@@ -11006,7 +11144,7 @@
       </c>
       <c r="Y17" s="38"/>
     </row>
-    <row r="18" spans="2:25" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="39">
         <v>11</v>
       </c>
@@ -11078,7 +11216,7 @@
       </c>
       <c r="Y18" s="16"/>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B19" s="28"/>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
@@ -11089,7 +11227,7 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
     </row>
-    <row r="20" spans="2:25" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C20" s="49" t="s">
         <v>43</v>
       </c>
@@ -11113,7 +11251,7 @@
       <c r="X20" s="51"/>
       <c r="Y20" s="51"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C21" s="52" t="s">
         <v>44</v>
       </c>
@@ -11137,7 +11275,7 @@
       <c r="X21" s="51"/>
       <c r="Y21" s="51"/>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C22" s="53" t="s">
         <v>45</v>
       </c>
@@ -11158,7 +11296,7 @@
       <c r="X22" s="51"/>
       <c r="Y22" s="51"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C23" s="54" t="s">
         <v>46</v>
       </c>
@@ -11182,7 +11320,7 @@
       <c r="X23" s="51"/>
       <c r="Y23" s="51"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C24" s="55" t="s">
         <v>47</v>
       </c>
@@ -11207,7 +11345,7 @@
       <c r="X24" s="51"/>
       <c r="Y24" s="51"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C25" s="56" t="s">
         <v>48</v>
       </c>
@@ -11232,7 +11370,7 @@
       <c r="X25" s="51"/>
       <c r="Y25" s="51"/>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C26" s="11" t="s">
         <v>49</v>
       </c>
@@ -11257,7 +11395,7 @@
       <c r="X26" s="51"/>
       <c r="Y26" s="51"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="G27" s="16"/>
@@ -11280,16 +11418,16 @@
       <c r="X27" s="51"/>
       <c r="Y27" s="51"/>
     </row>
-    <row r="28" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="294" t="s">
+    <row r="28" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="296" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="294"/>
-      <c r="E28" s="294"/>
-      <c r="F28" s="294"/>
-      <c r="G28" s="299"/>
-      <c r="H28" s="299"/>
-      <c r="I28" s="299"/>
+      <c r="D28" s="296"/>
+      <c r="E28" s="296"/>
+      <c r="F28" s="296"/>
+      <c r="G28" s="300"/>
+      <c r="H28" s="300"/>
+      <c r="I28" s="300"/>
       <c r="J28" s="1"/>
       <c r="K28" s="2"/>
       <c r="L28" s="16"/>
@@ -11307,16 +11445,16 @@
       <c r="X28" s="51"/>
       <c r="Y28" s="51"/>
     </row>
-    <row r="29" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="294" t="s">
+    <row r="29" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="296" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="296"/>
-      <c r="E29" s="297"/>
-      <c r="F29" s="297"/>
-      <c r="G29" s="298"/>
-      <c r="H29" s="298"/>
-      <c r="I29" s="298"/>
+      <c r="D29" s="297"/>
+      <c r="E29" s="298"/>
+      <c r="F29" s="298"/>
+      <c r="G29" s="299"/>
+      <c r="H29" s="299"/>
+      <c r="I29" s="299"/>
       <c r="J29" s="1"/>
       <c r="K29" s="2"/>
       <c r="L29" s="16"/>
@@ -11334,16 +11472,16 @@
       <c r="X29" s="51"/>
       <c r="Y29" s="51"/>
     </row>
-    <row r="30" spans="2:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="294" t="s">
+    <row r="30" spans="2:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="296" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="296"/>
-      <c r="E30" s="297"/>
-      <c r="F30" s="297"/>
-      <c r="G30" s="298"/>
-      <c r="H30" s="298"/>
-      <c r="I30" s="298"/>
+      <c r="D30" s="297"/>
+      <c r="E30" s="298"/>
+      <c r="F30" s="298"/>
+      <c r="G30" s="299"/>
+      <c r="H30" s="299"/>
+      <c r="I30" s="299"/>
       <c r="J30" s="1"/>
       <c r="K30" s="2"/>
       <c r="L30" s="16"/>
@@ -11361,16 +11499,16 @@
       <c r="X30" s="51"/>
       <c r="Y30" s="51"/>
     </row>
-    <row r="31" spans="2:25" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="294" t="s">
+    <row r="31" spans="2:25" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="296" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="294"/>
-      <c r="E31" s="297"/>
-      <c r="F31" s="297"/>
-      <c r="G31" s="298"/>
-      <c r="H31" s="298"/>
-      <c r="I31" s="298"/>
+      <c r="D31" s="296"/>
+      <c r="E31" s="298"/>
+      <c r="F31" s="298"/>
+      <c r="G31" s="299"/>
+      <c r="H31" s="299"/>
+      <c r="I31" s="299"/>
       <c r="J31" s="1"/>
       <c r="K31" s="2"/>
       <c r="L31" s="16"/>
@@ -11388,7 +11526,7 @@
       <c r="X31" s="51"/>
       <c r="Y31" s="51"/>
     </row>
-    <row r="32" spans="2:25" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C32" s="58"/>
       <c r="D32" s="58"/>
       <c r="E32" s="59"/>
@@ -11413,15 +11551,15 @@
       <c r="X32" s="51"/>
       <c r="Y32" s="51"/>
     </row>
-    <row r="33" spans="3:25" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="292" t="s">
+      <c r="D33" s="295" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="292"/>
-      <c r="F33" s="292"/>
+      <c r="E33" s="295"/>
+      <c r="F33" s="295"/>
       <c r="G33" s="59"/>
       <c r="H33" s="59"/>
       <c r="I33" s="59"/>
@@ -11442,15 +11580,15 @@
       <c r="X33" s="51"/>
       <c r="Y33" s="51"/>
     </row>
-    <row r="34" spans="3:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="287" t="s">
+      <c r="D34" s="290" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="287"/>
-      <c r="F34" s="287"/>
+      <c r="E34" s="290"/>
+      <c r="F34" s="290"/>
       <c r="G34" s="59"/>
       <c r="H34" s="59"/>
       <c r="I34" s="59"/>
@@ -11471,15 +11609,15 @@
       <c r="X34" s="51"/>
       <c r="Y34" s="51"/>
     </row>
-    <row r="35" spans="3:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="287" t="s">
+      <c r="D35" s="290" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="287"/>
-      <c r="F35" s="287"/>
+      <c r="E35" s="290"/>
+      <c r="F35" s="290"/>
       <c r="G35" s="59"/>
       <c r="H35" s="59"/>
       <c r="I35" s="59"/>
@@ -11500,15 +11638,15 @@
       <c r="X35" s="51"/>
       <c r="Y35" s="51"/>
     </row>
-    <row r="36" spans="3:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="287" t="s">
+      <c r="D36" s="290" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="287"/>
-      <c r="F36" s="287"/>
+      <c r="E36" s="290"/>
+      <c r="F36" s="290"/>
       <c r="G36" s="59"/>
       <c r="H36" s="59"/>
       <c r="I36" s="59"/>
@@ -11529,21 +11667,21 @@
       <c r="X36" s="51"/>
       <c r="Y36" s="51"/>
     </row>
-    <row r="37" spans="3:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C37" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="289" t="s">
+      <c r="D37" s="292" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="289"/>
-      <c r="F37" s="289"/>
+      <c r="E37" s="292"/>
+      <c r="F37" s="292"/>
       <c r="G37" s="59"/>
       <c r="H37" s="59"/>
       <c r="I37" s="59"/>
       <c r="Q37" s="6"/>
     </row>
-    <row r="38" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C38" s="63"/>
       <c r="D38" s="64"/>
       <c r="E38" s="64"/>
@@ -11552,64 +11690,70 @@
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
     </row>
-    <row r="39" spans="3:25" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="294" t="s">
+    <row r="39" spans="3:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="294"/>
-      <c r="E39" s="295"/>
-      <c r="F39" s="295"/>
-      <c r="G39" s="295"/>
-      <c r="H39" s="295"/>
-      <c r="I39" s="295"/>
-    </row>
-    <row r="40" spans="3:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="293" t="s">
+      <c r="D39" s="296"/>
+      <c r="E39" s="302"/>
+      <c r="F39" s="302"/>
+      <c r="G39" s="302"/>
+      <c r="H39" s="302"/>
+      <c r="I39" s="302"/>
+    </row>
+    <row r="40" spans="3:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="301" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="294"/>
-      <c r="E40" s="295"/>
-      <c r="F40" s="295"/>
-      <c r="G40" s="295"/>
-      <c r="H40" s="295"/>
-      <c r="I40" s="295"/>
-    </row>
-    <row r="41" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D40" s="296"/>
+      <c r="E40" s="302"/>
+      <c r="F40" s="302"/>
+      <c r="G40" s="302"/>
+      <c r="H40" s="302"/>
+      <c r="I40" s="302"/>
+    </row>
+    <row r="41" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D48" s="12"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="12"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="12"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="12"/>
     </row>
   </sheetData>
   <sheetProtection password="91FB" sheet="1"/>
   <mergeCells count="16">
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="C39:I39"/>
@@ -11620,12 +11764,6 @@
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -11644,90 +11782,90 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.1328125" style="7"/>
-    <col min="3" max="3" width="20.1328125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.265625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="61.265625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="17.73046875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.73046875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="18.265625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="16.73046875" style="7" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="20.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="61.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="7" customWidth="1"/>
     <col min="11" max="11" width="14" style="7" customWidth="1"/>
-    <col min="12" max="12" width="13.86328125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="15.1328125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="13.73046875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="15.1328125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="13.3984375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="14.3984375" style="7" customWidth="1"/>
-    <col min="18" max="18" width="13.59765625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="14.265625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="13.59765625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="14.59765625" style="7" customWidth="1"/>
-    <col min="22" max="22" width="14.86328125" style="7" customWidth="1"/>
-    <col min="23" max="23" width="14.1328125" style="7" customWidth="1"/>
-    <col min="24" max="24" width="14.86328125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="7" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="7" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="7" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="7" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" style="7" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="7" customWidth="1"/>
     <col min="25" max="25" width="16" style="7" customWidth="1"/>
-    <col min="26" max="26" width="16.1328125" style="11" customWidth="1"/>
-    <col min="27" max="27" width="15.59765625" style="7" customWidth="1"/>
-    <col min="28" max="28" width="15.86328125" style="7" customWidth="1"/>
-    <col min="29" max="29" width="15.3984375" style="7" customWidth="1"/>
-    <col min="30" max="30" width="15.59765625" style="7" customWidth="1"/>
-    <col min="31" max="31" width="13.3984375" style="7" customWidth="1"/>
-    <col min="32" max="32" width="14.59765625" style="7" customWidth="1"/>
-    <col min="33" max="33" width="15.1328125" style="7" customWidth="1"/>
-    <col min="34" max="35" width="15.59765625" style="7" customWidth="1"/>
-    <col min="36" max="36" width="15.73046875" style="7" customWidth="1"/>
-    <col min="37" max="37" width="15.265625" style="7" customWidth="1"/>
-    <col min="38" max="38" width="14.59765625" style="7" customWidth="1"/>
-    <col min="39" max="39" width="15.265625" style="7" customWidth="1"/>
-    <col min="40" max="40" width="15.3984375" style="7" customWidth="1"/>
-    <col min="41" max="41" width="14.3984375" style="7" customWidth="1"/>
-    <col min="42" max="42" width="14.86328125" style="7" customWidth="1"/>
-    <col min="43" max="43" width="15.265625" style="7" customWidth="1"/>
-    <col min="44" max="44" width="15.1328125" style="7" customWidth="1"/>
-    <col min="45" max="45" width="14.73046875" style="7" customWidth="1"/>
-    <col min="46" max="46" width="12.3984375" style="7" customWidth="1"/>
-    <col min="47" max="47" width="12.73046875" style="7" customWidth="1"/>
-    <col min="48" max="49" width="13.3984375" style="7" customWidth="1"/>
-    <col min="50" max="50" width="12.73046875" style="7" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" style="11" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" style="7" customWidth="1"/>
+    <col min="28" max="28" width="15.85546875" style="7" customWidth="1"/>
+    <col min="29" max="29" width="15.42578125" style="7" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" style="7" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="7" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" style="7" customWidth="1"/>
+    <col min="33" max="33" width="15.140625" style="7" customWidth="1"/>
+    <col min="34" max="35" width="15.5703125" style="7" customWidth="1"/>
+    <col min="36" max="36" width="15.7109375" style="7" customWidth="1"/>
+    <col min="37" max="37" width="15.28515625" style="7" customWidth="1"/>
+    <col min="38" max="38" width="14.5703125" style="7" customWidth="1"/>
+    <col min="39" max="39" width="15.28515625" style="7" customWidth="1"/>
+    <col min="40" max="40" width="15.42578125" style="7" customWidth="1"/>
+    <col min="41" max="41" width="14.42578125" style="7" customWidth="1"/>
+    <col min="42" max="42" width="14.85546875" style="7" customWidth="1"/>
+    <col min="43" max="43" width="15.28515625" style="7" customWidth="1"/>
+    <col min="44" max="44" width="15.140625" style="7" customWidth="1"/>
+    <col min="45" max="45" width="14.7109375" style="7" customWidth="1"/>
+    <col min="46" max="46" width="12.42578125" style="7" customWidth="1"/>
+    <col min="47" max="47" width="12.7109375" style="7" customWidth="1"/>
+    <col min="48" max="49" width="13.42578125" style="7" customWidth="1"/>
+    <col min="50" max="50" width="12.7109375" style="7" customWidth="1"/>
     <col min="51" max="51" width="14" style="7" customWidth="1"/>
-    <col min="52" max="52" width="13.1328125" style="7" customWidth="1"/>
-    <col min="53" max="16384" width="9.1328125" style="7"/>
+    <col min="52" max="52" width="13.140625" style="7" customWidth="1"/>
+    <col min="53" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:47" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:47" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:47" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:47" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:47" ht="14.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:47" ht="14.25" x14ac:dyDescent="0.2">
       <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:47" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:47" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="B6" s="290" t="s">
+    <row r="5" spans="2:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B6" s="293" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="290" t="s">
+      <c r="C6" s="293" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="290" t="s">
+      <c r="D6" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="290" t="s">
+      <c r="E6" s="293" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="290" t="s">
+      <c r="F6" s="293" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -11798,14 +11936,14 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="2:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="291" t="s">
+    <row r="7" spans="2:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
+      <c r="C7" s="294"/>
+      <c r="D7" s="294"/>
+      <c r="E7" s="294"/>
+      <c r="F7" s="294"/>
       <c r="G7" s="108">
         <v>41444</v>
       </c>
@@ -11873,7 +12011,7 @@
         <v>41106</v>
       </c>
     </row>
-    <row r="8" spans="2:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B8" s="11">
         <v>1</v>
       </c>
@@ -11958,7 +12096,7 @@
       <c r="AC8" s="6"/>
       <c r="AU8" s="16"/>
     </row>
-    <row r="9" spans="2:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B9" s="11">
         <v>2</v>
       </c>
@@ -12042,7 +12180,7 @@
       </c>
       <c r="AU9" s="16"/>
     </row>
-    <row r="10" spans="2:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B10" s="11">
         <v>3</v>
       </c>
@@ -12127,7 +12265,7 @@
       <c r="AC10" s="6"/>
       <c r="AU10" s="16"/>
     </row>
-    <row r="11" spans="2:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -12211,7 +12349,7 @@
       </c>
       <c r="AU11" s="16"/>
     </row>
-    <row r="12" spans="2:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -12296,7 +12434,7 @@
       <c r="AC12" s="6"/>
       <c r="AU12" s="16"/>
     </row>
-    <row r="13" spans="2:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -12380,7 +12518,7 @@
       </c>
       <c r="AU13" s="16"/>
     </row>
-    <row r="14" spans="2:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -12465,7 +12603,7 @@
       <c r="AC14" s="6"/>
       <c r="AU14" s="16"/>
     </row>
-    <row r="15" spans="2:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B15" s="11">
         <v>8</v>
       </c>
@@ -12549,7 +12687,7 @@
       </c>
       <c r="AU15" s="16"/>
     </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B16" s="11">
         <v>9</v>
       </c>
@@ -12634,7 +12772,7 @@
       <c r="AC16" s="6"/>
       <c r="AU16" s="16"/>
     </row>
-    <row r="17" spans="2:47" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:47" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="28">
         <v>10</v>
       </c>
@@ -12723,7 +12861,7 @@
       <c r="AG17" s="7"/>
       <c r="AU17" s="38"/>
     </row>
-    <row r="18" spans="2:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B18" s="28">
         <v>11</v>
       </c>
@@ -12808,7 +12946,7 @@
       <c r="AC18" s="6"/>
       <c r="AU18" s="16"/>
     </row>
-    <row r="19" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11">
         <v>12</v>
       </c>
@@ -12893,7 +13031,7 @@
       <c r="AC19" s="84"/>
       <c r="AU19" s="38"/>
     </row>
-    <row r="20" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11">
         <v>13</v>
       </c>
@@ -12978,7 +13116,7 @@
       <c r="AC20" s="84"/>
       <c r="AU20" s="38"/>
     </row>
-    <row r="21" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="28">
         <v>14</v>
       </c>
@@ -13063,7 +13201,7 @@
       <c r="AC21" s="84"/>
       <c r="AU21" s="38"/>
     </row>
-    <row r="22" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="28">
         <v>15</v>
       </c>
@@ -13148,7 +13286,7 @@
       <c r="AC22" s="84"/>
       <c r="AU22" s="38"/>
     </row>
-    <row r="23" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="11">
         <v>16</v>
       </c>
@@ -13233,7 +13371,7 @@
       <c r="AC23" s="84"/>
       <c r="AU23" s="38"/>
     </row>
-    <row r="24" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="11">
         <v>17</v>
       </c>
@@ -13318,7 +13456,7 @@
       <c r="AC24" s="84"/>
       <c r="AU24" s="38"/>
     </row>
-    <row r="25" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="28">
         <v>18</v>
       </c>
@@ -13403,7 +13541,7 @@
       <c r="AC25" s="84"/>
       <c r="AU25" s="38"/>
     </row>
-    <row r="26" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="28">
         <v>19</v>
       </c>
@@ -13488,7 +13626,7 @@
       <c r="AC26" s="84"/>
       <c r="AU26" s="38"/>
     </row>
-    <row r="27" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="11">
         <v>20</v>
       </c>
@@ -13573,7 +13711,7 @@
       <c r="AC27" s="84"/>
       <c r="AU27" s="38"/>
     </row>
-    <row r="28" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11">
         <v>21</v>
       </c>
@@ -13658,7 +13796,7 @@
       <c r="AC28" s="84"/>
       <c r="AU28" s="38"/>
     </row>
-    <row r="29" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="28">
         <v>22</v>
       </c>
@@ -13743,7 +13881,7 @@
       <c r="AC29" s="84"/>
       <c r="AU29" s="38"/>
     </row>
-    <row r="30" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="28">
         <v>23</v>
       </c>
@@ -13828,7 +13966,7 @@
       <c r="AC30" s="84"/>
       <c r="AU30" s="38"/>
     </row>
-    <row r="31" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11">
         <v>24</v>
       </c>
@@ -13913,7 +14051,7 @@
       <c r="AC31" s="84"/>
       <c r="AU31" s="38"/>
     </row>
-    <row r="32" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:47" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11">
         <v>25</v>
       </c>
@@ -13996,7 +14134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="2:51" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:51" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="28">
         <v>26</v>
       </c>
@@ -14079,7 +14217,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="2:51" s="83" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:51" s="83" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="39">
         <v>27</v>
       </c>
@@ -14162,7 +14300,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="2:51" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:51" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="80"/>
       <c r="C35" s="81"/>
       <c r="D35" s="82"/>
@@ -14170,7 +14308,7 @@
       <c r="G35" s="80"/>
       <c r="Z35" s="80"/>
     </row>
-    <row r="36" spans="2:51" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:51" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="80"/>
       <c r="C36" s="81"/>
       <c r="D36" s="82"/>
@@ -14178,86 +14316,86 @@
       <c r="G36" s="80"/>
       <c r="Z36" s="80"/>
     </row>
-    <row r="37" spans="2:51" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:51" x14ac:dyDescent="0.2">
       <c r="C37" s="49" t="s">
         <v>43</v>
       </c>
       <c r="AY37" s="6"/>
     </row>
-    <row r="38" spans="2:51" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:51" x14ac:dyDescent="0.2">
       <c r="C38" s="52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="2:51" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:51" x14ac:dyDescent="0.2">
       <c r="C39" s="53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="2:51" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:51" x14ac:dyDescent="0.2">
       <c r="C40" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="2:51" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:51" x14ac:dyDescent="0.2">
       <c r="C41" s="55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="2:51" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:51" x14ac:dyDescent="0.2">
       <c r="C42" s="56" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="2:51" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:51" x14ac:dyDescent="0.2">
       <c r="C43" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="2:51" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:51" x14ac:dyDescent="0.2">
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="2:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G45" s="7"/>
       <c r="Z45" s="7"/>
     </row>
-    <row r="46" spans="2:51" ht="69" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="296" t="s">
+    <row r="46" spans="2:51" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="297" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="296"/>
-      <c r="D46" s="296"/>
-      <c r="E46" s="296"/>
-      <c r="F46" s="296"/>
-      <c r="G46" s="296"/>
+      <c r="C46" s="297"/>
+      <c r="D46" s="297"/>
+      <c r="E46" s="297"/>
+      <c r="F46" s="297"/>
+      <c r="G46" s="297"/>
       <c r="Z46" s="7"/>
     </row>
-    <row r="47" spans="2:51" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="296" t="s">
+    <row r="47" spans="2:51" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="297" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="296"/>
-      <c r="D47" s="296"/>
-      <c r="E47" s="296"/>
-      <c r="F47" s="296"/>
-      <c r="G47" s="296"/>
+      <c r="C47" s="297"/>
+      <c r="D47" s="297"/>
+      <c r="E47" s="297"/>
+      <c r="F47" s="297"/>
+      <c r="G47" s="297"/>
       <c r="Z47" s="7"/>
     </row>
-    <row r="48" spans="2:51" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="296" t="s">
+    <row r="48" spans="2:51" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="297" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="296"/>
-      <c r="D48" s="296"/>
-      <c r="E48" s="296"/>
-      <c r="F48" s="296"/>
-      <c r="G48" s="296"/>
+      <c r="C48" s="297"/>
+      <c r="D48" s="297"/>
+      <c r="E48" s="297"/>
+      <c r="F48" s="297"/>
+      <c r="G48" s="297"/>
       <c r="Z48" s="7"/>
     </row>
-    <row r="49" spans="2:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="124"/>
       <c r="C49" s="124"/>
       <c r="D49" s="124"/>
@@ -14266,72 +14404,72 @@
       <c r="G49" s="124"/>
       <c r="Z49" s="7"/>
     </row>
-    <row r="50" spans="2:26" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="120"/>
       <c r="C50" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="292" t="s">
+      <c r="D50" s="295" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="292"/>
-      <c r="F50" s="292"/>
+      <c r="E50" s="295"/>
+      <c r="F50" s="295"/>
       <c r="G50" s="120"/>
       <c r="Z50" s="7"/>
     </row>
-    <row r="51" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="120"/>
       <c r="C51" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="302" t="s">
+      <c r="D51" s="305" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="302"/>
-      <c r="F51" s="302"/>
+      <c r="E51" s="305"/>
+      <c r="F51" s="305"/>
       <c r="G51" s="120"/>
       <c r="Z51" s="7"/>
     </row>
-    <row r="52" spans="2:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="120"/>
       <c r="C52" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="302" t="s">
+      <c r="D52" s="305" t="s">
         <v>58</v>
       </c>
-      <c r="E52" s="302"/>
-      <c r="F52" s="302"/>
+      <c r="E52" s="305"/>
+      <c r="F52" s="305"/>
       <c r="G52" s="120"/>
       <c r="Z52" s="7"/>
     </row>
-    <row r="53" spans="2:26" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:26" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="120"/>
       <c r="C53" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="302" t="s">
+      <c r="D53" s="305" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="302"/>
-      <c r="F53" s="302"/>
+      <c r="E53" s="305"/>
+      <c r="F53" s="305"/>
       <c r="G53" s="120"/>
       <c r="Z53" s="7"/>
     </row>
-    <row r="54" spans="2:26" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:26" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="120"/>
       <c r="C54" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="301" t="s">
+      <c r="D54" s="304" t="s">
         <v>61</v>
       </c>
-      <c r="E54" s="301"/>
-      <c r="F54" s="301"/>
+      <c r="E54" s="304"/>
+      <c r="F54" s="304"/>
       <c r="G54" s="120"/>
       <c r="Z54" s="7"/>
     </row>
-    <row r="55" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="120"/>
       <c r="C55" s="120"/>
       <c r="D55" s="120"/>
@@ -14340,7 +14478,7 @@
       <c r="G55" s="120"/>
       <c r="Z55" s="7"/>
     </row>
-    <row r="56" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B56" s="120"/>
       <c r="C56" s="120"/>
       <c r="D56" s="120"/>
@@ -14349,57 +14487,62 @@
       <c r="G56" s="120"/>
       <c r="Z56" s="7"/>
     </row>
-    <row r="57" spans="2:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="296" t="s">
+    <row r="57" spans="2:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="297" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="300"/>
-      <c r="D57" s="300"/>
-      <c r="E57" s="300"/>
-      <c r="F57" s="300"/>
-      <c r="G57" s="300"/>
+      <c r="C57" s="303"/>
+      <c r="D57" s="303"/>
+      <c r="E57" s="303"/>
+      <c r="F57" s="303"/>
+      <c r="G57" s="303"/>
       <c r="Z57" s="7"/>
     </row>
-    <row r="58" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G58" s="7"/>
       <c r="Z58" s="7"/>
     </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
       <c r="D59" s="12"/>
     </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
       <c r="D60" s="12"/>
     </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
       <c r="D61" s="12"/>
     </row>
-    <row r="62" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
       <c r="D62" s="12"/>
     </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
       <c r="D63" s="12"/>
     </row>
-    <row r="64" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
       <c r="D64" s="12"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="12"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="12"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="12"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" s="12"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="12"/>
     </row>
   </sheetData>
   <sheetProtection password="91FB" sheet="1"/>
   <mergeCells count="14">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="B57:G57"/>
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="D54:F54"/>
@@ -14409,11 +14552,6 @@
     <mergeCell ref="D53:F53"/>
     <mergeCell ref="B47:G47"/>
     <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -14433,64 +14571,64 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.1328125" style="7"/>
+    <col min="1" max="2" width="9.140625" style="7"/>
     <col min="3" max="3" width="24" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.265625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="58.1328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="58.140625" style="7" customWidth="1"/>
     <col min="7" max="7" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="16.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.1328125" style="7"/>
+    <col min="8" max="8" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:45" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:45" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:45" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:45" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:45" ht="14.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:45" ht="14.25" x14ac:dyDescent="0.2">
       <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:45" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:45" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B6" s="290" t="s">
+    <row r="5" spans="2:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B6" s="293" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="290" t="s">
+      <c r="C6" s="293" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="290" t="s">
+      <c r="D6" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="290" t="s">
+      <c r="E6" s="293" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="290" t="s">
+      <c r="F6" s="293" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="10" t="s">
@@ -14555,14 +14693,14 @@
       </c>
       <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="2:45" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="291" t="s">
+    <row r="7" spans="2:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
+      <c r="C7" s="294"/>
+      <c r="D7" s="294"/>
+      <c r="E7" s="294"/>
+      <c r="F7" s="294"/>
       <c r="G7" s="74">
         <v>41073</v>
       </c>
@@ -14625,7 +14763,7 @@
       </c>
       <c r="AA7" s="6"/>
     </row>
-    <row r="8" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B8" s="11">
         <v>1</v>
       </c>
@@ -14704,7 +14842,7 @@
       <c r="AA8" s="6"/>
       <c r="AS8" s="16"/>
     </row>
-    <row r="9" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B9" s="11">
         <v>2</v>
       </c>
@@ -14783,7 +14921,7 @@
       <c r="AA9" s="6"/>
       <c r="AS9" s="16"/>
     </row>
-    <row r="10" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B10" s="11">
         <v>3</v>
       </c>
@@ -14862,7 +15000,7 @@
       <c r="AA10" s="6"/>
       <c r="AS10" s="16"/>
     </row>
-    <row r="11" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -14941,7 +15079,7 @@
       <c r="AA11" s="6"/>
       <c r="AS11" s="16"/>
     </row>
-    <row r="12" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -15020,7 +15158,7 @@
       <c r="AA12" s="6"/>
       <c r="AS12" s="16"/>
     </row>
-    <row r="13" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -15099,7 +15237,7 @@
       <c r="AA13" s="6"/>
       <c r="AS13" s="16"/>
     </row>
-    <row r="14" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -15178,7 +15316,7 @@
       <c r="AA14" s="6"/>
       <c r="AS14" s="16"/>
     </row>
-    <row r="15" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B15" s="11">
         <v>8</v>
       </c>
@@ -15257,7 +15395,7 @@
       <c r="AA15" s="6"/>
       <c r="AS15" s="16"/>
     </row>
-    <row r="16" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B16" s="11">
         <v>9</v>
       </c>
@@ -15336,7 +15474,7 @@
       <c r="AA16" s="6"/>
       <c r="AS16" s="16"/>
     </row>
-    <row r="17" spans="2:45" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:45" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="28">
         <v>10</v>
       </c>
@@ -15414,7 +15552,7 @@
       </c>
       <c r="AS17" s="38"/>
     </row>
-    <row r="18" spans="2:45" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="39">
         <v>11</v>
       </c>
@@ -15493,7 +15631,7 @@
       <c r="AA18" s="6"/>
       <c r="AS18" s="16"/>
     </row>
-    <row r="19" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B19" s="28"/>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
@@ -15504,7 +15642,7 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
     </row>
-    <row r="20" spans="2:45" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C20" s="49" t="s">
         <v>43</v>
       </c>
@@ -15528,7 +15666,7 @@
       <c r="X20" s="51"/>
       <c r="Y20" s="51"/>
     </row>
-    <row r="21" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C21" s="52" t="s">
         <v>44</v>
       </c>
@@ -15552,7 +15690,7 @@
       <c r="X21" s="51"/>
       <c r="Y21" s="51"/>
     </row>
-    <row r="22" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C22" s="53" t="s">
         <v>45</v>
       </c>
@@ -15573,7 +15711,7 @@
       <c r="X22" s="51"/>
       <c r="Y22" s="51"/>
     </row>
-    <row r="23" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C23" s="54" t="s">
         <v>46</v>
       </c>
@@ -15597,7 +15735,7 @@
       <c r="X23" s="51"/>
       <c r="Y23" s="51"/>
     </row>
-    <row r="24" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C24" s="55" t="s">
         <v>47</v>
       </c>
@@ -15622,7 +15760,7 @@
       <c r="X24" s="51"/>
       <c r="Y24" s="51"/>
     </row>
-    <row r="25" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C25" s="56" t="s">
         <v>48</v>
       </c>
@@ -15647,7 +15785,7 @@
       <c r="X25" s="51"/>
       <c r="Y25" s="51"/>
     </row>
-    <row r="26" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C26" s="11" t="s">
         <v>49</v>
       </c>
@@ -15672,7 +15810,7 @@
       <c r="X26" s="51"/>
       <c r="Y26" s="51"/>
     </row>
-    <row r="27" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="G27" s="16"/>
@@ -15695,16 +15833,16 @@
       <c r="X27" s="51"/>
       <c r="Y27" s="51"/>
     </row>
-    <row r="28" spans="2:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="294" t="s">
+    <row r="28" spans="2:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="296" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="294"/>
-      <c r="E28" s="294"/>
-      <c r="F28" s="294"/>
-      <c r="G28" s="299"/>
-      <c r="H28" s="299"/>
-      <c r="I28" s="299"/>
+      <c r="D28" s="296"/>
+      <c r="E28" s="296"/>
+      <c r="F28" s="296"/>
+      <c r="G28" s="300"/>
+      <c r="H28" s="300"/>
+      <c r="I28" s="300"/>
       <c r="J28" s="1"/>
       <c r="K28" s="2"/>
       <c r="L28" s="16"/>
@@ -15722,16 +15860,16 @@
       <c r="X28" s="51"/>
       <c r="Y28" s="51"/>
     </row>
-    <row r="29" spans="2:45" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="294" t="s">
+    <row r="29" spans="2:45" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="296" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="296"/>
-      <c r="E29" s="297"/>
-      <c r="F29" s="297"/>
-      <c r="G29" s="298"/>
-      <c r="H29" s="298"/>
-      <c r="I29" s="298"/>
+      <c r="D29" s="297"/>
+      <c r="E29" s="298"/>
+      <c r="F29" s="298"/>
+      <c r="G29" s="299"/>
+      <c r="H29" s="299"/>
+      <c r="I29" s="299"/>
       <c r="J29" s="1"/>
       <c r="K29" s="2"/>
       <c r="L29" s="16"/>
@@ -15749,16 +15887,16 @@
       <c r="X29" s="51"/>
       <c r="Y29" s="51"/>
     </row>
-    <row r="30" spans="2:45" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="294" t="s">
+    <row r="30" spans="2:45" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="296" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="296"/>
-      <c r="E30" s="297"/>
-      <c r="F30" s="297"/>
-      <c r="G30" s="298"/>
-      <c r="H30" s="298"/>
-      <c r="I30" s="298"/>
+      <c r="D30" s="297"/>
+      <c r="E30" s="298"/>
+      <c r="F30" s="298"/>
+      <c r="G30" s="299"/>
+      <c r="H30" s="299"/>
+      <c r="I30" s="299"/>
       <c r="J30" s="1"/>
       <c r="K30" s="2"/>
       <c r="L30" s="16"/>
@@ -15776,16 +15914,16 @@
       <c r="X30" s="51"/>
       <c r="Y30" s="51"/>
     </row>
-    <row r="31" spans="2:45" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="294" t="s">
+    <row r="31" spans="2:45" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="296" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="294"/>
-      <c r="E31" s="297"/>
-      <c r="F31" s="297"/>
-      <c r="G31" s="298"/>
-      <c r="H31" s="298"/>
-      <c r="I31" s="298"/>
+      <c r="D31" s="296"/>
+      <c r="E31" s="298"/>
+      <c r="F31" s="298"/>
+      <c r="G31" s="299"/>
+      <c r="H31" s="299"/>
+      <c r="I31" s="299"/>
       <c r="J31" s="1"/>
       <c r="K31" s="2"/>
       <c r="L31" s="16"/>
@@ -15803,7 +15941,7 @@
       <c r="X31" s="51"/>
       <c r="Y31" s="51"/>
     </row>
-    <row r="32" spans="2:45" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C32" s="58"/>
       <c r="D32" s="58"/>
       <c r="E32" s="59"/>
@@ -15828,15 +15966,15 @@
       <c r="X32" s="51"/>
       <c r="Y32" s="51"/>
     </row>
-    <row r="33" spans="3:25" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="292" t="s">
+      <c r="D33" s="295" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="292"/>
-      <c r="F33" s="292"/>
+      <c r="E33" s="295"/>
+      <c r="F33" s="295"/>
       <c r="G33" s="59"/>
       <c r="H33" s="59"/>
       <c r="I33" s="59"/>
@@ -15857,15 +15995,15 @@
       <c r="X33" s="51"/>
       <c r="Y33" s="51"/>
     </row>
-    <row r="34" spans="3:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="287" t="s">
+      <c r="D34" s="290" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="287"/>
-      <c r="F34" s="287"/>
+      <c r="E34" s="290"/>
+      <c r="F34" s="290"/>
       <c r="G34" s="59"/>
       <c r="H34" s="59"/>
       <c r="I34" s="59"/>
@@ -15886,15 +16024,15 @@
       <c r="X34" s="51"/>
       <c r="Y34" s="51"/>
     </row>
-    <row r="35" spans="3:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="287" t="s">
+      <c r="D35" s="290" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="287"/>
-      <c r="F35" s="287"/>
+      <c r="E35" s="290"/>
+      <c r="F35" s="290"/>
       <c r="G35" s="59"/>
       <c r="H35" s="59"/>
       <c r="I35" s="59"/>
@@ -15915,15 +16053,15 @@
       <c r="X35" s="51"/>
       <c r="Y35" s="51"/>
     </row>
-    <row r="36" spans="3:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="287" t="s">
+      <c r="D36" s="290" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="287"/>
-      <c r="F36" s="287"/>
+      <c r="E36" s="290"/>
+      <c r="F36" s="290"/>
       <c r="G36" s="59"/>
       <c r="H36" s="59"/>
       <c r="I36" s="59"/>
@@ -15944,21 +16082,21 @@
       <c r="X36" s="51"/>
       <c r="Y36" s="51"/>
     </row>
-    <row r="37" spans="3:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C37" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="289" t="s">
+      <c r="D37" s="292" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="289"/>
-      <c r="F37" s="289"/>
+      <c r="E37" s="292"/>
+      <c r="F37" s="292"/>
       <c r="G37" s="59"/>
       <c r="H37" s="59"/>
       <c r="I37" s="59"/>
       <c r="Q37" s="6"/>
     </row>
-    <row r="38" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C38" s="63"/>
       <c r="D38" s="64"/>
       <c r="E38" s="64"/>
@@ -15967,69 +16105,64 @@
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
     </row>
-    <row r="39" spans="3:25" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="294" t="s">
+    <row r="39" spans="3:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="294"/>
-      <c r="E39" s="295"/>
-      <c r="F39" s="295"/>
-      <c r="G39" s="295"/>
-      <c r="H39" s="295"/>
-      <c r="I39" s="295"/>
-    </row>
-    <row r="40" spans="3:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="293" t="s">
+      <c r="D39" s="296"/>
+      <c r="E39" s="302"/>
+      <c r="F39" s="302"/>
+      <c r="G39" s="302"/>
+      <c r="H39" s="302"/>
+      <c r="I39" s="302"/>
+    </row>
+    <row r="40" spans="3:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="301" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="294"/>
-      <c r="E40" s="295"/>
-      <c r="F40" s="295"/>
-      <c r="G40" s="295"/>
-      <c r="H40" s="295"/>
-      <c r="I40" s="295"/>
-    </row>
-    <row r="41" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D40" s="296"/>
+      <c r="E40" s="302"/>
+      <c r="F40" s="302"/>
+      <c r="G40" s="302"/>
+      <c r="H40" s="302"/>
+      <c r="I40" s="302"/>
+    </row>
+    <row r="41" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D48" s="12"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="12"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="12"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="12"/>
     </row>
   </sheetData>
   <sheetProtection password="91FB" sheet="1"/>
   <mergeCells count="16">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="C28:I28"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D37:F37"/>
@@ -16041,6 +16174,11 @@
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
